--- a/Output/Notebooks.xlsx
+++ b/Output/Notebooks.xlsx
@@ -7,20 +7,20 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Melhores" sheetId="1" r:id="rId1"/>
-    <sheet name="Piores" sheetId="2" r:id="rId2"/>
+    <sheet name="Best" sheetId="1" r:id="rId1"/>
+    <sheet name="Worst" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="203">
-  <si>
-    <t>PRODUTO</t>
-  </si>
-  <si>
-    <t>QTD_AVAL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="467">
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>REVIEWS_COUNT</t>
   </si>
   <si>
     <t>URL</t>
@@ -38,12 +38,12 @@
     <t>Notebook Lenovo IdeaPad 1i Intel Core i5</t>
   </si>
   <si>
+    <t>Notebook Samsung Galaxy Book 2 Intel Core i3 4GB</t>
+  </si>
+  <si>
     <t>Notebook Lenovo IdeaPad 1i Intel Core i3 4GB RAM</t>
   </si>
   <si>
-    <t>Notebook Samsung Galaxy Book 2 Intel Core i3 4GB</t>
-  </si>
-  <si>
     <t>Notebook Samsung Galaxy Book 2 Intel Core i5 8GB</t>
   </si>
   <si>
@@ -71,21 +71,21 @@
     <t>Notebook Acer Aspire 5 A515-57-57T3 Intel Core i5 12ª Geração Windows 11 Home 8GB 512SSD 15,6" FHD</t>
   </si>
   <si>
+    <t>Notebook Compaq Presario 427 Intel Pentium N3700</t>
+  </si>
+  <si>
     <t>Notebook Positivo Motion Red Q464C Intel Atom</t>
   </si>
   <si>
-    <t>Notebook Compaq Presario 427 Intel Pentium N3700</t>
-  </si>
-  <si>
     <t>Notebook Gamer Dell G15 AMD Ryzen 5 8GB</t>
   </si>
   <si>
+    <t>Notebook Positivo Motion Gray Q4128C-S Intel Atom</t>
+  </si>
+  <si>
     <t>Notebook Acer Aspire 3 Intel Core i3 8GB 256GB SSD</t>
   </si>
   <si>
-    <t>Notebook Positivo Motion Gray Q4128C-S Intel Atom</t>
-  </si>
-  <si>
     <t>Notebook Ultra UB320 Intel Pentium</t>
   </si>
   <si>
@@ -101,6 +101,63 @@
     <t>Notebook Acer Aspire 5 Intel Core i5 8GB 256GB SSD</t>
   </si>
   <si>
+    <t>Notebook Asus VivoBook X543MA-GQ1300T</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Motion C Intel Celeron Dual-Core</t>
+  </si>
+  <si>
+    <t>Notebook HP Intel Core i3 8GB 256GB SSD 15,6”</t>
+  </si>
+  <si>
+    <t>Notebook Asus Intel Celeron 4GB 128 GB SSD</t>
+  </si>
+  <si>
+    <t>Notebook HP Intel Core i5 8GB 256GB 15,6”</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad3i 82BS0006BR Intel Core i3</t>
+  </si>
+  <si>
+    <t>Notebook Asus X515JF-EJ153T Intel Core i5 8GB 256G</t>
+  </si>
+  <si>
+    <t>Notebook Asus Intel Core i3 4GB 256GB SSD 15,6”</t>
+  </si>
+  <si>
+    <t>Notebook Acer A515-54-59BU Intel Core i5 8GB</t>
+  </si>
+  <si>
+    <t>Notebook Asus VivoBook Intel Core i5 8GB 256GB SSD</t>
+  </si>
+  <si>
+    <t>Notebook HP Intel Core i5 8GB 256GB SSD 15,6”</t>
+  </si>
+  <si>
+    <t>Notebook Asus M515DA-EJ502T AMD Ryzen 5 8GB</t>
+  </si>
+  <si>
+    <t>Notebook Asus Intel Core i3 4GB 256GB SSD</t>
+  </si>
+  <si>
+    <t>Notebook Acer A315-56-311J Intel Core i3 8GB</t>
+  </si>
+  <si>
+    <t>Notebook Acer A315-23-R6HC Ryzen 5 8GB</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Motion Intel Atom</t>
+  </si>
+  <si>
+    <t>Notebook Compaq Presario Snapdragon 7c 4GB</t>
+  </si>
+  <si>
+    <t>Notebook Vaio FE15 Intel Core i3 4GB 256GB SSD</t>
+  </si>
+  <si>
+    <t>Notebook Acer Aspire 3 Intel Core i3 8GB 512GB SSD</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-go-snapdragon-4gb-128gb-ufs-14-full-hd-windows-11-np340xla-k06br/p/236887900/in/nsbo/</t>
   </si>
   <si>
@@ -113,12 +170,12 @@
     <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i5-8gb-ram-ssd-512gb-windows-11-156-15iau7/p/238006100/in/leip/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-2-intel-core-i3-4gb-ssd-256gb-156-full-hd-windows-11-np550xed-kt3br/p/238037400/in/nsbo/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i3-4gb-ram-256gb-ssd-156-windows-11-82vy000tbr/p/238006500/in/leip/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-2-intel-core-i3-4gb-ssd-256gb-156-full-hd-windows-11-np550xed-kt3br/p/238037400/in/nsbo/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-2-intel-core-i5-8gb-ssd-256gb-156-full-hd-windows-11-np550xed-kf2br/p/238037000/in/nsbo/</t>
   </si>
   <si>
@@ -146,21 +203,21 @@
     <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-a515-57-57t3-intel-core-i5-12a-geracao-windows-11-home-8gb-512ssd-156-fhd/p/fbkh035a3d/in/nota/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-427-intel-pentium-n3700-4gb-240gb-ssd-141-linux/p/233508700/in/note/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-positivo-motion-red-q464c-intel-atom-quad-core-4gb-64gb-emmc-64gb-nuvem-141-led/p/135301500/in/ptvm/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-427-intel-pentium-n3700-4gb-240gb-ssd-141-linux/p/233508700/in/note/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-gamer-dell-g15-amd-ryzen-5-8gb-256gb-ssd-156-full-hd-nvidia-rtx-3050-4gb/p/236820200/in/nodl/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-gray-q4128c-s-intel-atom-4gb-128gb-emmc-141-led-windows-10/p/135295100/in/ptvm/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-acer-aspire-3-intel-core-i3-8gb-256gb-ssd-156-full-hd-windows-11-a315-58-31uy/p/235821300/in/nota/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-gray-q4128c-s-intel-atom-4gb-128gb-emmc-141-led-windows-10/p/135295100/in/ptvm/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-ultra-ub320-intel-pentium-quad-core-4gb-120gb-ssd-141-hd-lcd-ub320/p/230022400/in/note/</t>
   </si>
   <si>
@@ -176,6 +233,69 @@
     <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-intel-core-i5-8gb-256gb-ssd-156-full-hd-windows-11-home/p/234898600/in/nota/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-x543ma-gq1300t-intel-celeron-dual-core-4gb-500gb-156-windows-10/p/135320000/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-c-intel-celeron-dual-core-4gb-120gb-ssd-14-led-windows-11/p/232783700/in/ptvm/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-hp-intel-core-i3-8gb-256gb-ssd-156-windows-11-g8/p/237133100/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-intel-celeron-4gb-128-gb-ssd-156-windows-11/p/235180000/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-intel-core-i5-8gb-256gb-ssd-156-full-hd-windows-11/p/236720000/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-hp-intel-core-i5-8gb-256gb-156-hd-windows-11-256-g8/p/235134900/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad3i-82bs0006br-intel-core-i3-4gb-256gb-ssd-156-lcd-windows-10/p/135302400/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-3-intel-core-i3-8gb-256gb-ssd-156-windows-11-a315-56-39up/p/234898500/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-x515jf-ej153t-intel-core-i5-8gb-256g-ssd-156-full-hd-placa-de-video-2gb-windows-10/p/230019500/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-intel-core-i3-4gb-256gb-ssd-156-windows-11-x515ja-br2750w/p/234630400/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-a515-54-59bu-intel-core-i5-8gb-256gb-ssd-156-led-full-hd-ips-windows-10/p/231755400/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-intel-core-i5-8gb-256gb-ssd-156-windows-10-x543ua-dm3457t/p/230019400/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-hp-intel-core-i5-8gb-256gb-ssd-156-hd-windows-11-256-g8/p/234099900/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-m515da-ej502t-amd-ryzen-5-8gb-256gb-156-full-hd-windows-10/p/135308500/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-intel-core-i3-4gb-256gb-ssd-156-hd-windows-11-x515ea-br1275w/p/233274000/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-a315-56-311j-intel-core-i3-8gb-256gb-ssd-156-full-hd-led-windows-10/p/231776600/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-a315-23-r6hc-ryzen-5-8gb-512gb-ssd-156-led-windows-10/p/231755800/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-intel-atom-4gb-128gb-emmc-141-led-windows-10/p/232710700/in/ptvm/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-snapdragon-7c-4gb-128gb-ufs-156-hd-windows-11/p/236879000/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-intel-core-i3-4gb-256gb-ssd-156-full-hd-windows-11/p/233239600/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-3-intel-core-i3-8gb-512gb-ssd-156-full-hd-windows-11-a315-58-372m/p/236720100/in/nota/</t>
+  </si>
+  <si>
     <t>Notebook HQ Joy, Intel Celeron, 4GB, SSD 128GB, Tela 14.1", Windows 11, Cinza - NHJ-W11H-CE2</t>
   </si>
   <si>
@@ -206,199 +326,532 @@
     <t>Notebook Gamer Lenovo LOQ Intel Core i5 8GB RAM</t>
   </si>
   <si>
+    <t>Notebook Dell Inspiron I15-I120K-M45P 15.6" Full HD 12ª Geração Intel Core i7 16GB 512GB SSD Windows 11 Preto</t>
+  </si>
+  <si>
     <t>Notebook ASUS Vivobook M1502IA-EJ252 AMD Ryzen 7 4800H 8Gb Ram 256Gb Ssd Linux KeepOs 15,6” FHD Prata Metálico</t>
   </si>
   <si>
-    <t>Notebook Dell Inspiron I15-I120K-M45P 15.6" Full HD 12ª Geração Intel Core i7 16GB 512GB SSD Windows 11 Preto</t>
+    <t>Notebook Acer Aspire 5 AMD Ryzen7-5700U, 16GB RAM, SSD 512GB, 15.6" Full HD IPS, AMD Radeon, Linux, Prata - A515-45-R74N</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook Go E1504FA AMD Ryzen 5 7520U 8GB Ram 512GB SSD Linux KeepOS Tela 15,6" FHD Black - NJ732</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2 360 Intel Core i5-1235U, Windows 11 Home, 16GB, 512GB SSD, 13.3'' Full HD</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book4 Intel Core i5 8GB RAM SSD 512GB 15,6" Full HD Windows 11 NP750XGJ-KG3BR</t>
+  </si>
+  <si>
+    <t>Notebook Asus VivoBook 15 Intel Core i3 8GB 512GB</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook X1502ZA Intel Core i5 12450H 8GB Ram 512GB SSD Linux Tela 15,6" FHD Blue - EJ1756</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2 Intel Core i5-1235U, 8GB RAM, SSD 256GB, 15.6" Full HD, Windows 11 Home, Grafite - NP550XED-KF2BR</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ultrafino IdeaPad 1 R5-7520U 8GB 512GB SSD Windows 11 15.6" 82X5000GBR Cloud Grey</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 8GB Ram 512GB SSD Windows 11 Tela 15,6" FHD Blue - NJ987W</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book4 Intel Core i5 8GB RAM SSD 256GB 15,6" Full HD Windows 11 NP750XGJ-KG4BR</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Vision C14 Lumina BAR Intel Celeron Dual Core Linux 8GB 240GB SSD 14” HD Cinza</t>
+  </si>
+  <si>
+    <t>Notebook HP 256 G9 Intel Core i5 8GB 256GB SSD 15,6" Windows 11 Home</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Lenovo LOQ 15IRH8 Intel Core i5-12450H 15.6" GeForce RTX 2050 512GB 8GB Windows 11</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2 Intel CORE I5 8GB 256 GB SSD Tela 15.6 Windows 11 Home</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book4 Intel Core i3 8GB RAM SSD 256GB 15,6" Full HD Windows 11 NP750XGJ-KG5BR</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i Intel Core i7-1255U 16GB 512GB SSD Windows 11 Home 15.6" 82VY000NBR</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook Go E1504GA Intel Core i3 N305 4GB Ram 256GB SSD Linux KeepOS Tela 15,6" FHD Silver - NJ447</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I1300-M80P 15.6" Full HD 13ª Gen Intel Core i7 16GB 1TB SSD Win 11 Preto Carbono</t>
+  </si>
+  <si>
+    <t>Notebook Asus Intel Celeron W11 Home 4GB 128GB SSD 15.6 Polegadas X515MA-BR933WS</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ultrafino IdeaPad 1 R3-7320U 4GB 256GB SSD Windows Home 15.6" 82X5000EBR Cloud Grey</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i Celeron N4020 4GB 128GB W11 + Office 15.6" - 82VX0001BR</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2, Windows 11 Home, Intel Core i7-1255U, 8GB, 512GB SSD, 15.6" Full HD LED, Grafite - NP550XED-KS2BR</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book3 360, Windows 11 Home, Intel Core i5-1335U, 8 GB, 256 GB SSD, 13.3" Full HD AMOLED, 1.16 kg</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i Intel Core i3-1215U 4GB 256GB SSD Windows 11 Home 14" 83AF0000BR</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I120K-M30P 15.6" Full HD 12ª Geração Intel Core i5 16GB 512GB SSD Windows 11 Preto</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook 15 Intel Core i5 16GB RAM 512GB 15,6" Full HD KeepOS X1502ZA-BQ1808</t>
+  </si>
+  <si>
+    <t>Notebook Intel Core i5 12450H 8GB RAM 256GB SSD Acer Aspire 5 A515-57-51W5 Tela Full HD 15.6" Linux</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I120K-U10P 15.6" Full HD 12ª Geração Intel Core i3 8GB 256GB SSD Linux Preto</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook Go E1504FA AMD Ryzen 5 7520U 8GB Ram 256GB SSD Linux KeepOS Tela 15,6" FHD Black - NJ731</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Dell G15-i1300-M30P 15.6" FHD 13ª Geração Intel Core i5 16GB 512GB SSD NVIDIA RTX 3050 Windows 11</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2 360 Intel Core i5-1235U, Windows 11 Home, 8GB, 256GB SSD, 13.3'' Full HD</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-A0507-M10P 15.6" Full HD AMD Ryzen 5 8GB 512GB SSD Windows 11 Preto Carbono</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 16GB Ram 512GB SSD Linux KeepOS Tela 15,6" FHD Blue - NJ931</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I1300-M50P 15.6" Full HD 13ª Gen Intel Core i5 16GB 512GB SSD Win 11 Preto Carbono</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i Intel Core i5-1235U 8GB 512GB SSD Windows 11 Home 14" 83AF000EBR</t>
+  </si>
+  <si>
+    <t>Notebook Acer Swift 3 Intel Core i5 8GB 1TB SSD</t>
+  </si>
+  <si>
+    <t>Notebook AMD Ryzen R5 5720U 8GB RAM 256GB SSD Acer Aspire 3 A315-24P-R611 Tela HD 15,6" Windows 11</t>
+  </si>
+  <si>
+    <t>Notebook VAIO FE15 AMD Ryzen 7- 5700U Linux 16GB RAM 512GB SSD 15,6'' Full HD - Cinza Grafite</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I120K-U45P 15.6" Full HD 12ª Geração Intel Core i7 16GB 512GB SSD Linux Preto</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1 Intel Core i3-1215U 15.6" Intel UHD Graphics 128GB SSD 4GB RAM Linux</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i i3-1215U 4GB 256GB SSD Linux 15.6" 82VYS00600 Cloud Grey</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-A0507-M20P 15.6" Full HD AMD Ryzen 5 8GB 1TB SSD Windows 11 Preto Carbono</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i Intel Core i3-1215U 4GB 256GB SSD Linux 14" 83AFS00500</t>
+  </si>
+  <si>
+    <t>Notebook Macbook Air 13,3” Apple M1 8GB</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ultrafino IdeaPad 1 i3-1215U 8GB 256GB SSD Windows Home 15.6" 82VY000SBR Cloud Grey</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book4, Windows 11 Home, Intel Core i5, 16GB, 512GB SSD, 15.6'' Full HD LED, 1.55 kg</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i Intel Core i7-1255U 12GB 512GB SSD Linux 15.6" 82VYS01000</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 8GB Ram 512GB SSD Linux KeepOS Tela 15,6" FHD Blue - NJ983</t>
+  </si>
+  <si>
+    <t>Notebook Asus X515MA Tela 15,6 Polegadas Intel Celeron 128GB 4GB RAM</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Lenovo LOQ Intel Core i5-12450H 16GB 512GB SSD RTX 2050 15.6" FHD W11 83EU0001BR</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo V14 AMD R5-5625U 8GB 256GB SSD W11 Home 14" FHD 82UN000CBR</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2 Intel Core i3-1215U, Windows 11 Home, 4GB, 256GB SSD, 15.6" Full HD LED</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I120K-U15P 15.6" Full HD 12ª Geração Intel Core i3 8GB 512GB SSD Linux Preto</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book3 360, Windows 11 Home, Intel Core i7-1360P, 16GB, 1 TB SSD, 15.6'' Full HD AMOLED, 1.46 kg</t>
+  </si>
+  <si>
+    <t>Notebook lenovo ThinkPad L14 Ryzen 5 Pro 16GB 512GB SSD W11 Home 14" FHD 21C60029BO Preto</t>
+  </si>
+  <si>
+    <t>Notebook Predator Neo PHN16-71-72W6 Core i7 13 G. Windows 11 Home 16GB 512SSD RTX 4060 16” WUXGA</t>
+  </si>
+  <si>
+    <t>Notebook VAIO FE15 Intel Core i5-1135G7 Linux 16GB 512GB SSD Full HD - Cinza Grafite</t>
+  </si>
+  <si>
+    <t>Notebook Multi Legacy Book PC260 Intel</t>
+  </si>
+  <si>
+    <t>Notebook Multilaser M11W Prime 2 em 1 Celeron N4020 11.6 64GB 4GB Win11 Home Prata + Microsoft 365 Personal - PC280</t>
+  </si>
+  <si>
+    <t>Notebook intel Core I5 Acer Aspire 5 8GB RAM 256GB Tela 15'6</t>
+  </si>
+  <si>
+    <t>Notebook Asus Vivobook 16 Intel Core i7 8GB 256GB</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book4 360, Windows 11 Home, Intel Core i7, 16GB, 1TB SSD, 15.6'' Full HD AMOLED, 1.46 kg</t>
+  </si>
+  <si>
+    <t>Notebook Intel Quadcore 6gb Ram Ssd 64gb Tela 14.1 Ips Usb 3</t>
+  </si>
+  <si>
+    <t>Notebook Vaio FE15 VJFE54F11X-B2711H Intel Core i7 16GB RAM SSD 512GB 15,6" Full HD Windows 11 3343475</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2 Intel Core i5-1235U, Windows 11 Home, 8GB, 256GB SSD, 15.6'' Full HD LED</t>
+  </si>
+  <si>
+    <t>Notebook Compaq Presario 444 Intel Core i3-6167U Linux 4GB 240GB SSD 14,1" LED HD - Cinza</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook Go 15 Intel Core i3 8 GB 512 SSD W11 Home Tela 15.6" FHD, Cool Silver - E1504GA-NJ435W</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad3i 82BU0001BR Intel Celeron</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book4, Windows 11 Home, Intel Core i5, 8GB, 512GB SSD, 15.6'' Full HD LED, 1.55 kg</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2 Intel Core i7-1255U, Windows 11 Home, 8GB, 512GB SSD, 15.6'' Full HD LED</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book 3 360, Evo Intel Core i5 1335U, 16GB, 512 SSD, 13,3" - NP730QFG-KF1BR</t>
+  </si>
+  <si>
+    <t>Notebook Compaq Presario CQ-25 Intel Pentium 4GB</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I120K-M15P 15.6" Full HD 12ª Geração Intel Core i3 8GB 512GB SSD Windows 11 Preto</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i i5-1235U 8GB 512GB SSD Windows Home 15.6" 82VY000QBR Cloud Grey</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I120K-M45M 15.6" Full HD 12ª Geração Intel Core i7 16GB 512GB SSD Windows 11 + Mouse WM126</t>
+  </si>
+  <si>
+    <t>Notebook HP 256-G9 Intel Core i3 8gb 256gb SSD 15,6" Windows 11 7Z3R2LA</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad3i 82BS0002BR Intel Core i3</t>
+  </si>
+  <si>
+    <t>Notebook HP 250 G9 15.6 HD I5-1235U 8GB SSD 256GB Windows 11 Pro Cinza</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Lenovo IdeaPad Gaming 3i AMD Ryzen</t>
+  </si>
+  <si>
+    <t>Notebook Apple MacBook Air, M2 da Apple, com 10 GPU, 8GB RAM, 512GB SSD, Estelar - MLY23BZ/A</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book 3 360, Evo Intel Core i7 1360P, 16GB, 512 SSD, 15,6" - NP750QFG-KS1BR</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ideapad S145 Intel Core i5 8GB</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Yoga Slim 6 Intel Core i7-1260P 16GB 512GB SSD Intel Iris Xe W11 14" 83C70001BR</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo T440 I5 8gb Ssd 256gb Win 10 Pro</t>
+  </si>
+  <si>
+    <t>Notebook Acer Aspire 3 A315-23G-R2SE AMD Ryzen 5</t>
+  </si>
+  <si>
+    <t>Notebook Compaq Presario 454 Intel Core i5 8GB</t>
+  </si>
+  <si>
+    <t>Notebook Vaio FE15 Intel Core i5 8GB 512GB SSD</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Motion C41TD</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad3i 82BS0005BR Intel Core i5</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ideapad S145 81V7000CBR</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i Intel Core i3-1215U 4GB 256GB SSD Windows 11 Home 15.6" 82VY000UBR</t>
+  </si>
+  <si>
+    <t>Notebook Vaio FE14 VJFE43F11X-B0111H Intel Core i3</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ideapad S145 82DJ0001BR</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Motion Intel Atom Quad-Core Windows 10 Home 14.1" - Vermelho-</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Lenovo Ideapad L340 Intel Core i5</t>
+  </si>
+  <si>
+    <t>Notebook VAIO FE15 AMD Ryzen 7-5700U Linux 32GB RAM 512GB SSD 15.6" Full HD - Cinza Grafite</t>
+  </si>
+  <si>
+    <t>Notebook Galaxy Book3 360 13.3" I5 16GB RAM 512GB SSD Full HD W11 NP730QFG-KF1BR</t>
+  </si>
+  <si>
+    <t>Notebook Gamer ASUS TUF Gaming F15FX507VU RTX4050 Core i7 13620H 8Gb Ram 512Gb SSD Linux 15,6" FHD144Hz Gray- LP151</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Motion C4128E Intel Celeron</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo V14 i3-1215U 8GB 256GB SSD W11 Pro 14" FHD 82UL0019BR Preto</t>
+  </si>
+  <si>
+    <t>Notebook VAIO FE15 AMD Ryzen 5-5500U Linux 16GB 512GB SSD Full HD - Prata Titânio</t>
+  </si>
+  <si>
+    <t>Notebook HP 256-G8 Intel Core i3 8GB 256GB SSD Tela de 15,6" Windows 11 613G3LA</t>
+  </si>
+  <si>
+    <t>Notebook Asus VivoBook X543UA-DM3459T</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ideapad S145 82DJ0003BR Intel Core</t>
+  </si>
+  <si>
+    <t>Notebook Asus VivoBook X543UA-GQ3430T</t>
+  </si>
+  <si>
+    <t>Notebook lenovo ThinkPad L14 Ryzen 5 Pro 16GB 512GB SSD W11 Pro 14" FHD 21C60016BO Preto</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron 3511 Core I5 11th 20gb 1Tb Ssd Tela 15" Windows 11 + Mochila</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Gamer Loq, Intel Core i5 12450H, 8GB, 512GB SSD, RTX2050, Tela de 15,6", Cinza - 83EU0000BR</t>
+  </si>
+  <si>
+    <t>Notebook Asus VivoBook 15 X513EA-EJ1064T</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Legion Slim 5 Intel Core i7-13700H 16GB 1TB RTX 4060 8GB W11 16" WQXGA 83D60000BR</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ultrafino Ideapad 3 AMD Ryzen 5 8GB 256GB SSD WIN11 15.6" Prata + Headphone Bluetooth Branco GT</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2, Intel Core i7 1255U, 8GB, 512GB SSD, Tela de 15,6", Cinza - NP550XED-KS2BR</t>
+  </si>
+  <si>
+    <t>Notebook Asus VivoBook X543UA-GQ3213T</t>
+  </si>
+  <si>
+    <t>Notebook Vaio FE15 VJFE52F11X-B2211H Intel Core i5</t>
+  </si>
+  <si>
+    <t>Notebook Compaq Presario CQ-29 Intel Core i5</t>
+  </si>
+  <si>
+    <t>Notebook Vaio FE15 VJFE53F11X-B0211H</t>
+  </si>
+  <si>
+    <t>Notebook acer a515 54 579s 8g ssd m.2 nvme 256g intel core i5</t>
+  </si>
+  <si>
+    <t>Notebook Ultra UB420 Intel Core i3 4GB</t>
+  </si>
+  <si>
+    <t>Notebook Ultra UB423 Intel Core i3 4GB</t>
+  </si>
+  <si>
+    <t>Notebook Vaio FE15 VJFE52F11X-B2521H Intel Core i3</t>
+  </si>
+  <si>
+    <t>Notebook Gamer ASUS ROG STRIX Gaming G16 G614JU RTX4050 Core i7 16Gb Ram 512GB SSD W11 16" FHD 165Hz Gray - N3380W</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo V15 i3-1215U 8GB 256GB SSD W11 home 15" FHD 82UM000KBR Preto</t>
+  </si>
+  <si>
+    <t>Notebook Compaq Presario CQ-27 Intel Core i3 4GB</t>
+  </si>
+  <si>
+    <t>Notebook Compaq Presario 450 Intel Core i5 8GB</t>
+  </si>
+  <si>
+    <t>Notebook Vaio FE15 VJFE53F11X-B0511H</t>
+  </si>
+  <si>
+    <t>NOTEBOOK SAMSUNG INTEL CORE I7 11th 8GB 256SSD WIN11</t>
+  </si>
+  <si>
+    <t>Notebook VAIO FE15 AMD Ryzen 5-5500U Linux 8GB 256GB SSD Full HD - Prata Titânio</t>
+  </si>
+  <si>
+    <t>Notebook Vaio FE14 VJFE42F11X-B1721H Intel Core i3</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Book Core i7-1165G7 Win 118GB 1TB HD 15.6''</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ideapad 1 Ryzen 5-7520u 8gb 256gb Win11 15,6</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Motion 14 HD Intel i3-7020U 1TB 4GB Linux Cinza Escuro</t>
+  </si>
+  <si>
+    <t>Notebook samsung core i3 11th 8gb ssd nvme 256gb</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Motion Q4128C Atom Z8350 4GB 128GB Windows10 14" - 3002030</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Dell 5490 I7 8th 16gb Ssd 480gb</t>
+  </si>
+  <si>
+    <t>Notebook Ultra Intel W10 Core i5 8gb Ram 1TB HDD Prata Ub531</t>
+  </si>
+  <si>
+    <t>Chromebook C733-C607 Intel Celeron N4020 4GB 32GB eMMC 11.6' Chrome OS</t>
+  </si>
+  <si>
+    <t>Notebook Acer Aspire 5 Intel Core i7-12650H 8GB RAM SSD 256GB 15.6" Full HD Intel UHD Linux Gutta - A515-57-727C</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2, Intel Core i3-1215U, 4GB, 256GB SSD, Tela 15.6", Windows 11 Home - NP550XED-KT3BR</t>
+  </si>
+  <si>
+    <t>Notebook 2 em 1 Positivo 11.6” Intel N4020 4GB LPDDR4 128GB SSD Windows 11 Pro</t>
+  </si>
+  <si>
+    <t>Notebook VAIO FE15 AMD Ryzen 5-5500U Windows 11 Home 8GB 512GB SSD Full HD - Prata Titânio</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ideapad 3i AMD Ryzen 5 20GB - 512GB SSD 15.6” Full HD Windows 11 82MFS00100</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo V14 I5-1235U 8GB 256GB SSD Linux 14" FHD 82ULS00200 Preto</t>
   </si>
   <si>
     <t>Notebook Positivo Motion Gray C464F Intel Celeron Dual Core Windows 11 Home 14,1'' - Cinza - Inclui Microsoft 365*</t>
   </si>
   <si>
-    <t>Notebook 2 em 1 Positivo Duo C4128B-3 Intel Celeron Windows 11 Home 11,6" - Cinza Escuro - Inclui Microsoft 365*</t>
-  </si>
-  <si>
-    <t>Notebook Asus VivoBook 15 Intel Core i3 8GB 512GB</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook Go E1504FA AMD Ryzen 5 7520U 8GB Ram 512GB SSD Linux KeepOS Tela 15,6" FHD Black - NJ732</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2 Intel Core i5-1235U, 8GB RAM, SSD 256GB, 15.6" Full HD, Windows 11 Home, Grafite - NP550XED-KF2BR</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook X1502ZA Intel Core i5 12450H 8GB Ram 512GB SSD Linux Tela 15,6" FHD Blue - EJ1756</t>
-  </si>
-  <si>
-    <t>Notebook Acer Aspire 5 AMD Ryzen7-5700U, 16GB RAM, SSD 512GB, 15.6" Full HD IPS, AMD Radeon, Linux, Prata - A515-45-R74N</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo Ultrafino IdeaPad 1 R5-7520U 8GB 512GB SSD Windows 11 15.6" 82X5000GBR Cloud Grey</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 8GB Ram 512GB SSD Windows 11 Tela 15,6" FHD Blue - NJ987W</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book4 Intel Core i5 8GB RAM SSD 512GB 15,6" Full HD Windows 11 NP750XGJ-KG3BR</t>
-  </si>
-  <si>
-    <t>Notebook Positivo Vision C14 Lumina BAR Intel Celeron Dual Core Linux 8GB 240GB SSD 14” HD Cinza</t>
-  </si>
-  <si>
-    <t>Notebook HP 256 G9 Intel Core i5 8GB 256GB SSD 15,6" Windows 11 Home</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2 360 Intel Core i5-1235U, Windows 11 Home, 16GB, 512GB SSD, 13.3'' Full HD</t>
-  </si>
-  <si>
-    <t>Notebook Gamer Lenovo LOQ 15IRH8 Intel Core i5-12450H 15.6" GeForce RTX 2050 512GB 8GB Windows 11</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book4 Intel Core i5 8GB RAM SSD 256GB 15,6" Full HD Windows 11 NP750XGJ-KG4BR</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book4 Intel Core i3 8GB RAM SSD 256GB 15,6" Full HD Windows 11 NP750XGJ-KG5BR</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2 Intel CORE I5 8GB 256 GB SSD Tela 15.6 Windows 11 Home</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i Intel Core i7-1255U 16GB 512GB SSD Windows 11 Home 15.6" 82VY000NBR</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook Go E1504GA Intel Core i3 N305 4GB Ram 256GB SSD Linux KeepOS Tela 15,6" FHD Silver - NJ447</t>
-  </si>
-  <si>
-    <t>Notebook Asus Intel Celeron W11 Home 4GB 128GB SSD 15.6 Polegadas X515MA-BR933WS</t>
-  </si>
-  <si>
-    <t>Notebook Dell Inspiron I15-I1300-M80P 15.6" Full HD 13ª Gen Intel Core i7 16GB 1TB SSD Win 11 Preto Carbono</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2, Intel Core i3-1215U, 4GB, 256GB SSD, Tela 15.6", Windows 11 Home - NP550XED-KT3BR</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo Ultrafino IdeaPad 1 R3-7320U 4GB 256GB SSD Windows Home 15.6" 82X5000EBR Cloud Grey</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i Celeron N4020 4GB 128GB W11 + Office 15.6" - 82VX0001BR</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook 15 Intel Core i5 16GB RAM 512GB 15,6" Full HD KeepOS X1502ZA-BQ1808</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2, Windows 11 Home, Intel Core i7-1255U, 8GB, 512GB SSD, 15.6" Full HD LED, Grafite - NP550XED-KS2BR</t>
-  </si>
-  <si>
-    <t>Notebook Gamer Dell G15-i1300-M30P 15.6" FHD 13ª Geração Intel Core i5 16GB 512GB SSD NVIDIA RTX 3050 Windows 11</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1 Intel Core i3-1215U 15.6" Intel UHD Graphics 128GB SSD 4GB RAM Linux</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook Go E1504FA AMD Ryzen 5 7520U 8GB Ram 256GB SSD Linux KeepOS Tela 15,6" FHD Black - NJ731</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book3 360, Windows 11 Home, Intel Core i5-1335U, 8 GB, 256 GB SSD, 13.3" Full HD AMOLED, 1.16 kg</t>
-  </si>
-  <si>
-    <t>Notebook Intel Core i5 12450H 8GB RAM 256GB SSD Acer Aspire 5 A515-57-51W5 Tela Full HD 15.6" Linux</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book4, Windows 11 Home, Intel Core i5, 16GB, 512GB SSD, 15.6'' Full HD LED, 1.55 kg</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i Intel Core i3-1215U 4GB 256GB SSD Windows 11 Home 14" 83AF0000BR</t>
-  </si>
-  <si>
-    <t>Notebook Dell Inspiron I15-I120K-U10P 15.6" Full HD 12ª Geração Intel Core i3 8GB 256GB SSD Linux Preto</t>
-  </si>
-  <si>
-    <t>Notebook Dell Inspiron I15-I120K-M30P 15.6" Full HD 12ª Geração Intel Core i5 16GB 512GB SSD Windows 11 Preto</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i Intel Core i5-1235U 8GB 512GB SSD Windows 11 Home 14" 83AF000EBR</t>
-  </si>
-  <si>
-    <t>Notebook Dell Inspiron I15-I1300-M50P 15.6" Full HD 13ª Gen Intel Core i5 16GB 512GB SSD Win 11 Preto Carbono</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 16GB Ram 512GB SSD Linux KeepOS Tela 15,6" FHD Blue - NJ931</t>
-  </si>
-  <si>
-    <t>Notebook AMD Ryzen R5 5720U 8GB RAM 256GB SSD Acer Aspire 3 A315-24P-R611 Tela HD 15,6" Windows 11</t>
-  </si>
-  <si>
-    <t>Notebook Dell Inspiron I15-I120K-U45P 15.6" Full HD 12ª Geração Intel Core i7 16GB 512GB SSD Linux Preto</t>
-  </si>
-  <si>
-    <t>Notebook Acer Swift 3 Intel Core i5 8GB 1TB SSD</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i i3-1215U 4GB 256GB SSD Linux 15.6" 82VYS00600 Cloud Grey</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i Intel Core i7-1255U 12GB 512GB SSD Linux 15.6" 82VYS01000</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i Intel Core i3-1215U 4GB 256GB SSD Linux 14" 83AFS00500</t>
-  </si>
-  <si>
-    <t>Notebook Macbook Air 13,3” Apple M1 8GB</t>
-  </si>
-  <si>
-    <t>Notebook Gamer Lenovo LOQ Intel Core i5-12450H 16GB 512GB SSD RTX 2050 15.6" FHD W11 83EU0001BR</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo Ultrafino IdeaPad 1 i3-1215U 8GB 256GB SSD Windows Home 15.6" 82VY000SBR Cloud Grey</t>
-  </si>
-  <si>
-    <t>Notebook VAIO FE15 AMD Ryzen 7- 5700U Linux 16GB RAM 512GB SSD 15,6'' Full HD - Cinza Grafite</t>
-  </si>
-  <si>
-    <t>Notebook Multi Legacy Book PC260 Intel</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 8GB Ram 512GB SSD Linux KeepOS Tela 15,6" FHD Blue - NJ983</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2 360 Intel Core i5-1235U, Windows 11 Home, 8GB, 256GB SSD, 13.3'' Full HD</t>
-  </si>
-  <si>
-    <t>Notebook Asus X515MA Tela 15,6 Polegadas Intel Celeron 128GB 4GB RAM</t>
-  </si>
-  <si>
-    <t>Notebook Dell Inspiron I15-I120K-U15P 15.6" Full HD 12ª Geração Intel Core i3 8GB 512GB SSD Linux Preto</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2 Intel Core i3-1215U, Windows 11 Home, 4GB, 256GB SSD, 15.6" Full HD LED</t>
-  </si>
-  <si>
-    <t>Notebook HQ Joy, Intel Core i7 11390H, 16GB DDR4, SSD 512GB NVMe, Tela 15.6" Full HD, Windows 11, Cinza - NHJ-W11H-CI72</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book3 360, Windows 11 Home, Intel Core i7-1360P, 16GB, 1 TB SSD, 15.6'' Full HD AMOLED, 1.46 kg</t>
+    <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 8GB Ram 512GB SSD Windows 11 Tela 15,6" FHD Silver - NJ986W</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i i5-1235U 16GB 512GB SSD Windows 11 Home 15.6" 82VY000XBR Cloud Grey</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo V14 AMD R5 5625U 8GB 256GB SSD W11 Pro 14" FHD 82UN000GBR</t>
+  </si>
+  <si>
+    <t>Notebook Acer Aspire 5 A515-57-58W1 Intel Core i5 12ª Geração Linux Gutta 8GB 256SSD 15,6" FHD</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book3 Ultra, Windows 11 Home, Intel Core i9-13900H, 32GB, 1TB SSD, 16'' WQXGA+ AMOLED 2x, 1.79 kg</t>
+  </si>
+  <si>
+    <t>Notebook Asus Vivobook 16, Intel Core i7 1255U, 16GB, 512GB SSD, Tela 16",Win 11 - X1605ZA-MB313W</t>
+  </si>
+  <si>
+    <t>Notebook ASUS VivoBook 16 X1605ZA-MB312W Intel Core i7 1255U 3,5 GHz 16Gb Ram 256Gb Ssd Windows 11 Home Intel Iris Xe 16” Full HD Prata Metálico</t>
+  </si>
+  <si>
+    <t>Notebook VAIO FE15 Intel Core i5-10210U Linux 8GB 256GB SSD Full HD - Cinza Escuro</t>
+  </si>
+  <si>
+    <t>Notebook Gamer ASUS TUF Gaming F15 FX507ZC4-HN113W Intel Core i7 12700H 2,3 GHz 16Gb Ram 512Gb SSD Windows 11 Home NVIDIA GeForce RTX 3050 15,6" 144Hz</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook Go 15 E1504FA-NJ836W AMD Ryzen 5 7520U 2,8 GHz 8GB 512GB SSD Windows 11 Home 15,6" Full Hd Preto</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book4, Windows 11 Home, Intel Core i5, 8GB, 256GB SSD, 15.6'' Full HD LED, 1.55 kg</t>
+  </si>
+  <si>
+    <t>Notebook VAIO FE15 Intel Core i5-1135G7 Linux 8GB RAM 256GB SSD 15.6" Full HD - Cinza Grafite</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book 2 Pro, Evo Intel Core i7 1260P, Arc A350M, 16GB, 1TB SSD, Win 11, 15.6" - NP950XEE-XA1</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book4 360, Intel Core 7, 16GB, 1TB SD, Tela Touch 15,6", Grafite - NP750QGK-KG1BR</t>
+  </si>
+  <si>
+    <t>Notebook Compaq Presario 433 Intel Core i3-6157U Linux 4GB RAM 1TB HD 14" LED HD - Cinza</t>
+  </si>
+  <si>
+    <t>Notebook Macbook Air Apple, Tela de Retina 13", M2, 8GB RAM, CPU 8 Núcleos, GPU 10 Núcleos, SSD 512GB, Prateado - MLY03BZ/A</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Legion Slim 5 i7-13700H 16GB 512GB RTX 4060 8GB W11 Home 16" WQXGA 165Hz 83D60001BR</t>
+  </si>
+  <si>
+    <t>Macbook Air 13,3” Apple M1 8GB 256GB SSD Prateado</t>
   </si>
   <si>
     <t>Notebook MacBook Air Apple, Tela de Retina 13", M1, 8GB RAM, CPU 8 Núcleos, GPU 7 Núcleos, SSD 256GB, Cinza Espacial - MGN63BZ/A</t>
   </si>
   <si>
-    <t>Notebook Lenovo V14 AMD R5-5625U 8GB 256GB SSD W11 Home 14" FHD 82UN000CBR</t>
-  </si>
-  <si>
-    <t>Notebook Vaio FE15 VJFE54F11X-B2711H Intel Core i7 16GB RAM SSD 512GB 15,6" Full HD Windows 11 3343475</t>
-  </si>
-  <si>
-    <t>Notebook Asus Vivobook 16 Intel Core i7 8GB 256GB</t>
-  </si>
-  <si>
-    <t>Notebook VAIO FE15 Intel Core i5-1135G7 Linux 16GB 512GB SSD Full HD - Cinza Grafite</t>
-  </si>
-  <si>
-    <t>Notebook Intel Quadcore 6gb Ram Ssd 64gb Tela 14.1 Ips Usb 3</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2 Intel Core i5-1235U, Windows 11 Home, 8GB, 256GB SSD, 15.6'' Full HD LED</t>
+    <t>Notebook Dell Inspiron I15-I1300-M40P 15.6" Full HD 13ª Gen Intel Core i5 8GB 1TB SSD Win 11 Preto Carbono</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Dell G15-i1300-M20P 15.6" FHD 13ª Geração Intel Core i5 8GB 512GB SSD NVIDIA RTX 3050 Windows 11</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 8GB Ram 256GB SSD Linux KeepOS Tela 15,6" FHD Blue - NJ982</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Book I3 8gb 256gb Ssd 15,6'' Windows NP550XDAKV3BR</t>
+  </si>
+  <si>
+    <t>Notebook VAIO FE15 AMD Ryzen 7-5700U Windows 11 Home 16GB 512GB SSD Full HD - Prata Titânio</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I1300-U60P 15.6" Full HD 13ª Gen Intel Core i5 16GB 1TB SSD Linux Preto Carbono</t>
+  </si>
+  <si>
+    <t>Notebook Asus X515 Intel Celeron N4020 4GB DDR4 128GB SSD Tela 15.6” Windows 11 Home Cinza - X515MA-BR933WS</t>
+  </si>
+  <si>
+    <t>Notebook ASUS VivoBook 16 X1605ZA-MB310W Intel Core i7 1255U 3,5 GHz 8Gb Ram 256Gb Ssd Windows 11 Home Intel UHD 16” Full Hd Prata Metálico</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I1300-M60P 15.6" Full HD 13ª Gen Intel Core i5 16GB 1TB SSD Win 11 Preto Carbono</t>
+  </si>
+  <si>
+    <t>MacBook Air Apple 13", M3, CPU de 8 Núcleos, GPU de 8 Núcleos, 8GB RAM, SSD 256GB, Cinza Espacial - MRXN3BZ/A</t>
+  </si>
+  <si>
+    <t>Notebook Asus Vivobook 15 X1500EA-EJ3665W Intel Core I3 1115G4 4GB 256GB SSD Tela 15.6 Polegadas Windows 11</t>
+  </si>
+  <si>
+    <t>Notebook Vaio Intel Core i5 32GB 1TB SSD 15,6” - Full HD Windows 11 FE15 VJFE55F11X-B0211H</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-hq-joy-intel-celeron-4gb-ssd-128gb-tela-14-1-windows-11-cinza-nhj-w11h-ce2/p/caf53d7g25/in/note/</t>
@@ -431,199 +884,538 @@
     <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-loq-intel-core-i5-8gb-ram-512gb-ssd-156-full-hd-nvidia-rtx-2050-windows-11/p/238115900/in/leip/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-m45p-15-6-full-hd-12a-geracao-intel-core-i7-16gb-512gb-ssd-windows-11-preto/p/bdhhf5k9f4/in/nodl/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-m1502ia-ej252-amd-ryzen-7-4800h-8gb-ram-256gb-ssd-linux-keepos-156-fhd-prata-metalico/p/kfe4711k01/in/nass/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-m45p-15-6-full-hd-12a-geracao-intel-core-i7-16gb-512gb-ssd-windows-11-preto/p/bdhhf5k9f4/in/nodl/</t>
+    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-amd-ryzen7-5700u-16gb-ram-ssd-512gb-15-6-full-hd-ips-amd-radeon-linux-prata-a515-45-r74n/p/ab40jbeagh/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-e1504fa-amd-ryzen-5-7520u-8gb-ram-512gb-ssd-linux-keepos-tela-156-fhd-black-nj732/p/fhb18hg1j7/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-360-intel-core-i5-1235u-windows-11-home-16gb-512gb-ssd-13-3-full-hd/p/kkdhhc3a0k/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-intel-core-i5-8gb-ram-ssd-512gb-156-full-hd-windows-11-np750xgj-kg3br/p/238406900/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-intel-core-i3-8gb-512gb-ssd-156-full-hd-linux-endless-os-x1500ea-ej3667/p/237451600/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-x1502za-intel-core-i5-12450h-8gb-ram-512gb-ssd-linux-tela-156-fhd-blue-ej1756/p/gekb9k3344/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i5-1235u-8gb-ram-ssd-256gb-15-6-full-hd-windows-11-home-grafite-np550xed-kf2br/p/hed4692a65/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ultrafino-ideapad-1-r5-7520u-8gb-512gb-ssd-windows-11-15-6-82x5000gbr-cloud-grey/p/jak6cea937/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-8gb-ram-512gb-ssd-windows-11-tela-156-fhd-blue-nj987w/p/hg7d6a0113/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-intel-core-i5-8gb-ram-ssd-256gb-156-full-hd-windows-11-np750xgj-kg4br/p/238406500/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-vision-c14-lumina-bar-intel-celeron-dual-core-linux-8gb-240gb-ssd-14-hd-cinza/p/dfk5ec696g/in/ptvm/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-hp-256-g9-intel-core-i5-8gb-256gb-ssd-156-windows-11-home/p/degkjaj4ja/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-loq-15irh8-intel-core-i5-12450h-15-6-geforce-rtx-2050-512gb-8gb-windows-11/p/je2fghfkg6/in/ntbg/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i5-8gb-256-gb-ssd-tela-15-6-windows-11-home/p/dkg2d9b7c3/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-intel-core-i3-8gb-ram-ssd-256gb-156-full-hd-windows-11-np750xgj-kg5br/p/238407300/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i7-1255u-16gb-512gb-ssd-windows-11-home-15-6-82vy000nbr/p/akbj5ehbe9/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-e1504ga-intel-core-i3-n305-4gb-ram-256gb-ssd-linux-keepos-tela-156-fhd-silver-nj447/p/chgbd7eccd/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i1300-m80p-15-6-full-hd-13a-gen-intel-core-i7-16gb-1tb-ssd-win-11-preto-carbono/p/fc4ejd9k41/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-intel-celeron-w11-home-4gb-128gb-ssd-15-6-polegadas-x515ma-br933ws/p/bk0cff6d69/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ultrafino-ideapad-1-r3-7320u-4gb-256gb-ssd-windows-home-15-6-82x5000ebr-cloud-grey/p/bkcbg28d1h/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-celeron-n4020-4gb-128gb-w11-office-15-6-82vx0001br/p/fa8f38fde5/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-windows-11-home-intel-core-i7-1255u-8gb-512gb-ssd-15-6-full-hd-led-grafite-np550xed-ks2br/p/gd3aa20294/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book3-360-windows-11-home-intel-core-i5-1335u-8-gb-256-gb-ssd-13-3-full-hd-amoled-1-16-kg/p/djc87fd7b4/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i3-1215u-4gb-256gb-ssd-windows-11-home-14-83af0000br/p/cgaede9843/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-m30p-15-6-full-hd-12a-geracao-intel-core-i5-16gb-512gb-ssd-windows-11-preto/p/jed4b37a66/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-intel-core-i5-16gb-ram-512gb-156-full-hd-keepos-x1502za-bq1808/p/237245500/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-intel-core-i5-12450h-8gb-ram-256gb-ssd-acer-aspire-5-a515-57-51w5-tela-full-hd-15-6-linux/p/ha5jff893d/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-u10p-15-6-full-hd-12a-geracao-intel-core-i3-8gb-256gb-ssd-linux-preto/p/fh35h0dabe/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-e1504fa-amd-ryzen-5-7520u-8gb-ram-256gb-ssd-linux-keepos-tela-156-fhd-black-nj731/p/jh9c6ffhdk/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-dell-g15-i1300-m30p-15-6-fhd-13a-geracao-intel-core-i5-16gb-512gb-ssd-nvidia-rtx-3050-windows-11/p/jbdda11749/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-360-intel-core-i5-1235u-windows-11-home-8gb-256gb-ssd-13-3-full-hd/p/gfd18f1d65/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-a0507-m10p-15-6-full-hd-amd-ryzen-5-8gb-512gb-ssd-windows-11-preto-carbono/p/bf1b61fa82/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-16gb-ram-512gb-ssd-linux-keepos-tela-156-fhd-blue-nj931/p/kk5jkbadb5/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i1300-m50p-15-6-full-hd-13a-gen-intel-core-i5-16gb-512gb-ssd-win-11-preto-carbono/p/cba2e4dkk5/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i5-1235u-8gb-512gb-ssd-windows-11-home-14-83af000ebr/p/fa2eb83h76/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-swift-3-intel-core-i5-8gb-1tb-ssd-14-full-hd-windows-11-sf314-511-561n/p/235821900/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-amd-ryzen-r5-5720u-8gb-ram-256gb-ssd-acer-aspire-3-a315-24p-r611-tela-hd-156-windows-11/p/jd01639k02/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-amd-ryzen-7-5700u-linux-16gb-ram-512gb-ssd-156-full-hd-cinza-grafite/p/ad70f1kdck/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-u45p-15-6-full-hd-12a-geracao-intel-core-i7-16gb-512gb-ssd-linux-preto/p/af6h8jkg9h/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1-intel-core-i3-1215u-15-6-intel-uhd-graphics-128gb-ssd-4gb-ram-linux/p/kbke9a6317/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-i3-1215u-4gb-256gb-ssd-linux-15-6-82vys00600-cloud-grey/p/ad59fec5ke/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-a0507-m20p-15-6-full-hd-amd-ryzen-5-8gb-1tb-ssd-windows-11-preto-carbono/p/ea478a5h10/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i3-1215u-4gb-256gb-ssd-linux-14-83afs00500/p/kfjbccbede/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-macbook-air-133-apple-m1-8gb-256gb-ssd-cinza-espacial/p/227625300/in/mack/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ultrafino-ideapad-1-i3-1215u-8gb-256gb-ssd-windows-home-15-6-82vy000sbr-cloud-grey/p/hbh5e486dc/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-windows-11-home-intel-core-i5-16gb-512gb-ssd-15-6-full-hd-led-1-55-kg/p/eja386agb5/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i7-1255u-12gb-512gb-ssd-linux-15-6-82vys01000/p/gebkcj74g3/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-8gb-ram-512gb-ssd-linux-keepos-tela-156-fhd-blue-nj983/p/gga51eg2c9/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-x515ma-tela-156-polegadas-intel-celeron-128gb-4gb-ram/p/ec914k6d4k/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-loq-intel-core-i5-12450h-16gb-512gb-ssd-rtx-2050-15-6-fhd-w11-83eu0001br/p/hed5099hag/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-v14-amd-r5-5625u-8gb-256gb-ssd-w11-home-14-fhd-82un000cbr/p/he83hha659/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i3-1215u-windows-11-home-4gb-256gb-ssd-15-6-full-hd-led/p/hj3jejakae/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-u15p-15-6-full-hd-12a-geracao-intel-core-i3-8gb-512gb-ssd-linux-preto/p/cbgkfd6kj6/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book3-360-windows-11-home-intel-core-i7-1360p-16gb-1-tb-ssd-15-6-full-hd-amoled-1-46-kg/p/jdhc649k7h/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-thinkpad-l14-ryzen-5-pro-16gb-512gb-ssd-w11-home-14-fhd-21c60029bo-preto/p/de42j71a65/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-predator-neo-phn16-71-72w6-core-i7-13-g-windows-11-home-16gb-512ssd-rtx-4060-16-wuxga-acer/p/jeekk9kfa2/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-intel-core-i5-1135g7-linux-16gb-512gb-ssd-full-hd-cinza-grafite/p/hkbggbacbb/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-multi-legacy-book-pc260-intel-celeron-4gb-64gb-emmc-14-lcd-windows-10/p/228805400/in/nmls/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-multilaser-m11w-prime-2-em-1-celeron-n4020-11-6-64gb-4gb-win11-home-prata-microsoft-365-personal-pc280/p/fejbf46haa/in/nmls/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-intel-core-i5-acer-aspire-5-8gb-ram-256gb-tela-15-6/p/hjechefc15/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-16-intel-core-i7-8gb-256gb-ssd-16-windows-11-x1605za-mb310w/p/237655800/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-360-windows-11-home-intel-core-i7-16gb-1tb-ssd-15-6-full-hd-amoled-1-46-kg/p/ha317ehb3f/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-intel-quadcore-6gb-ram-ssd-64gb-tela-14-1-ips-usb-3-brazil-pc/p/jghh8ef3ea/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-vjfe54f11x-b2711h-intel-core-i7-16gb-ram-ssd-512gb-156-full-hd-windows-11-3343475/p/237258000/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i5-1235u-windows-11-home-8gb-256gb-ssd-15-6-full-hd-led/p/aej06j4d3k/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-444-intel-core-i3-6167u-linux-4gb-240gb-ssd-141-led-hd-cinza/p/jke6315a91/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-15-intel-core-i3-8-gb-512-ssd-w11-home-tela-15-6-fhd-cool-silver-e1504ga-nj435w/p/fa5dc3970a/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad3i-82bu0001br-intel-celeron-4gb-128gb-ssd-156-lcd-windows-10/p/135302500/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-windows-11-home-intel-core-i5-8gb-512gb-ssd-15-6-full-hd-led-1-55-kg/p/jh78j90k4h/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i7-1255u-windows-11-home-8gb-512gb-ssd-15-6-full-hd-led/p/ha6ef3c966/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-3-360-evo-intel-core-i5-1335u-16gb-512-ssd-133-np730qfg-kf1br/p/fhggd1bd77/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-cq-25-intel-pentium-4gb-120gb-ssd-14-led-windows-10/p/135308400/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-m15p-15-6-full-hd-12a-geracao-intel-core-i3-8gb-512gb-ssd-windows-11-preto/p/ce2be3h5jc/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-i5-1235u-8gb-512gb-ssd-windows-home-15-6-82vy000qbr-cloud-grey/p/dfj730e61c/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-m45m-15-6-full-hd-12a-geracao-intel-core-i7-16gb-512gb-ssd-windows-11-mouse-wm126/p/hf3b2k2736/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-hp-256-g9-intel-core-i3-8gb-256gb-ssd-156-windows-11-7z3r2la/p/fa3ehjcbde/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad3i-82bs0002br-intel-core-i3-4gb-1tb-156-lcd-windows-10/p/135302300/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-hp-250-g9-15-6-hd-i5-1235u-8gb-ssd-256gb-windows-11-pro-cinza/p/dd89g6ca52/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-ideapad-gaming-3i-amd-ryzen-7-8gb-256gb-ssd-155-full-hd-nvidia-gtx-1650/p/235631900/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-apple-macbook-air-m2-da-apple-com-10-gpu-8gb-ram-512gb-ssd-estelar-mly23bz-a/p/dhbfdc6d39/in/mack/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-3-360-evo-intel-core-i7-1360p-16gb-512-ssd-156-np750qfg-ks1br/p/ck0jeed50j/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-s145-intel-core-i5-8gb-256gb-ssd-156-placa-de-video-2gb-windows-10/p/226554400/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-yoga-slim-6-intel-core-i7-1260p-16gb-512gb-ssd-intel-iris-xe-w11-14-83c70001br/p/ed2keg6302/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-t440-i5-8gb-ssd-256gb-win-10-pro/p/kkj4fafkhk/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-3-a315-23g-r2se-amd-ryzen-5-8gb-256gb-ssd-156-placa-video-2gb-windows-10/p/227606400/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-454-intel-core-i5-8gb-240gb-ssd-141-hd-linux-debian-10/p/235135100/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-intel-core-i5-8gb-512gb-ssd-156-linux-vjfe55f11x-b0221h/p/236885000/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-c41td-intel-celeron-dual-core-4gb-1tb-14-windows-10/p/135257900/in/ptvm/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad3i-82bs0005br-intel-core-i5-8gb-256gb-ssd-156-lcd-windows-10/p/135302600/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-s145-81v7000cbr-amd-ryzen-3-8gb-256gb-ssd-156-lcd-windows-10/p/228062200/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i3-1215u-4gb-256gb-ssd-windows-11-home-15-6-82vy000ubr/p/fb7b24kac5/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe14-vjfe43f11x-b0111h-intel-core-i3-4gb-256gb-ssd-14-full-hd-windows-10/p/227743300/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-s145-82dj0001br-intel-core-i5-8gb-1tb-156-windows-10/p/226104200/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-intel-atom-quad-core-windows-10-home-14-1-vermelho/p/djh1f6a087/in/ptvm/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-ideapad-l340-intel-core-i5-8gb-256ssd-156-fullhd-nvidia-gtx1050-windows-10/p/227438200/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-amd-ryzen-7-5700u-linux-32gb-ram-512gb-ssd-15-6-full-hd-cinza-grafite/p/jj4g115ee0/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-galaxy-book3-360-13-3-i5-16gb-ram-512gb-ssd-full-hd-w11-np730qfg-kf1br-samsung/p/fbj964k5e6/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-asus-tuf-gaming-f15fx507vu-rtx4050-core-i7-13620h-8gb-ram-512gb-ssd-linux-156-fhd144hz-gray-lp151/p/eb87e37gf4/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-c4128e-intel-celeron-4gb-128gb-ssd-141-led-windows-10-office-365/p/228001000/in/ptvm/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-v14-i3-1215u-8gb-256gb-ssd-w11-pro-14-fhd-82ul0019br-preto/p/jb6d8bg9kf/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-amd-ryzen-5-5500u-linux-16gb-512gb-ssd-full-hd-prata-titanio/p/ke503a045g/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-hp-256-g8-intel-core-i3-8gb-256gb-ssd-tela-de-156-windows-11-613g3la/p/cb0058gg4c/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-x543ua-dm3459t-intel-core-i3-4gb-256gb-ssd-156-full-hd-led/p/135302000/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-s145-82dj0003br-intel-core-i5-8gb-256gb-ssd-lcd-15-6-hd-windows-10/p/227907200/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-x543ua-gq3430t-intel-core-i3-4gb-256gb-ssd-156-led-windows-10/p/135309500/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-thinkpad-l14-ryzen-5-pro-16gb-512gb-ssd-w11-pro-14-fhd-21c60016bo-preto/p/kbkhd9a2hg/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-3511-core-i5-11th-20gb-1tb-ssd-tela-15-windows-11-mochila/p/hdc1jg4fj2/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-gamer-loq-intel-core-i5-12450h-8gb-512gb-ssd-rtx2050-tela-de-156-cinza-83eu0000br/p/cbe4j58keg/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x513ea-ej1064t-intel-core-i7-8gb-256gb-ssd-156-full-hd-led/p/230019600/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-legion-slim-5-intel-core-i7-13700h-16gb-1tb-rtx-4060-8gb-w11-16-wqxga-83d60000br-lenovo/p/bg00h240eb/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-16-intel-core-i7-8gb-256gb-ssd-16-keepos-x1605za-mb310/p/237655700/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ultrafino-ideapad-3-amd-ryzen-5-8gb-256gb-ssd-win11-15-6-prata-headphone-bluetooth-branco-gt/p/ce908jd93c/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i7-1255u-8gb-512gb-ssd-tela-de-156-cinza-np550xed-ks2br/p/ghedh5g8ac/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-x543ua-gq3213t-intel-core-i5-8gb-256-ssd-156-led-windows-10/p/226498700/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-vjfe52f11x-b2211h-intel-core-i5-8gb-512gb-ssd-156-full-hd-led-windows-10/p/230532500/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-cq-29-intel-core-i5-8gb-480gb-ssd-156-full-hd-led-windows-10/p/227393300/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-vjfe53f11x-b0211h-intel-core-i3-4gb-256gb-ssd-156-led-windows-10/p/227904100/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-a515-54-579s-8g-ssd-m-2-nvme-256g-intel-core-i5/p/ghh29d3937/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-ultra-ub420-intel-core-i3-4gb-120gb-ssd-141-full-hd-windows-10/p/230022200/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-ultra-ub423-intel-core-i3-4gb-120gb-ssd-141-full-hd-lcd-linux/p/230022300/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-vjfe52f11x-b2521h-intel-core-i3-4gb-256gb-ssd-156-full-hd-led-windows-10/p/230344800/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-asus-rog-strix-gaming-g16-g614ju-rtx4050-core-i7-16gb-ram-512gb-ssd-w11-16-fhd-165hz-gray-n3380w/p/kjhh99ca8g/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-v15-i3-1215u-8gb-256gb-ssd-w11-home-15-fhd-82um000kbr-preto/p/kd2d75bc42/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-cq-27-intel-core-i3-4gb-120gb-ssd-14-led-windows-10/p/135308300/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-cq-27-intel-core-i3-4gb-240gb-ssd-141-led-linux/p/226914400/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-450-intel-core-i5-8gb-240gb-ssd-141-led-windows-10/p/230410600/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-vjfe53f11x-b0511h-intel-core-i5-8gb-512gb-ssd-156-led-windows-10/p/227903900/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-intel-core-i7-11th-8gb-256ssd-win11/p/bkj7ecka75/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-amd-ryzen-5-5500u-linux-8gb-256gb-ssd-full-hd-prata-titanio/p/fj0ek71eh5/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe14-vjfe42f11x-b1721h-intel-core-i3-4gb-256gb-ssd-14-full-hd-led-windows-10/p/230344700/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-book-core-i7-1165g7-win-118gb-1tb-hd-15-6/p/cf8f3hej36/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1-ryzen-5-7520u-8gb-256gb-win11-156/p/cgd8jg5fhj/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-14-hd-intel-i3-7020u-1tb-4gb-linux-cinza-escuro/p/ded900ek92/in/ptvm/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-core-i3-11th-8gb-ssd-nvme-256gb/p/ca476h6ke9/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-q4128c-atom-z8350-4gb-128gb-windows10-14-3002030/p/fgc5b8b0de/in/ptvm/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-dell-5490-i7-8th-16gb-ssd-480gb/p/jh6eb9fbeg/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-ultra-intel-w10-core-i5-8gb-ram-1tb-hdd-prata-ub531/p/fajj7f193e/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/chromebook-c733-c607-intel-celeron-n4020-4gb-32gb-emmc-11-6-chrome-os-acer/p/ge6f99djf0/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-intel-core-i7-12650h-8gb-ram-ssd-256gb-15-6-full-hd-intel-uhd-linux-gutta-a515-57-727c/p/dj044ff6b7/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i3-1215u-4gb-256gb-ssd-tela-15-6-windows-11-home-np550xed-kt3br/p/bk25hec5kk/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-2-em-1-positivo-11-6-intel-n4020-4gb-lpddr4-128gb-ssd-windows-11-pro/p/kh598dc392/in/ptvm/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-amd-ryzen-5-5500u-windows-11-home-8gb-512gb-ssd-full-hd-prata-titanio/p/khf9k56200/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-3i-amd-ryzen-5-20gb-512gb-ssd-15-6-full-hd-windows-11-82mfs00100/p/ccb9eg12d3/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-v14-i5-1235u-8gb-256gb-ssd-linux-14-fhd-82uls00200-preto/p/ah0j2db7f7/in/note/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-positivo-motion-gray-c464f-intel-celeron-dual-core-windows-11-home-141-cinza-inclui-microsoft-365/p/ka953hj2de/in/ptvm/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-2-em-1-positivo-duo-c4128b-3-intel-celeron-windows-11-home-116-cinza-escuro-inclui-microsoft-365/p/kg034bbd46/in/ptvm/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-intel-core-i3-8gb-512gb-ssd-156-full-hd-linux-endless-os-x1500ea-ej3667/p/237451600/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-e1504fa-amd-ryzen-5-7520u-8gb-ram-512gb-ssd-linux-keepos-tela-156-fhd-black-nj732/p/fhb18hg1j7/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i5-1235u-8gb-ram-ssd-256gb-15-6-full-hd-windows-11-home-grafite-np550xed-kf2br/p/hed4692a65/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-x1502za-intel-core-i5-12450h-8gb-ram-512gb-ssd-linux-tela-156-fhd-blue-ej1756/p/gekb9k3344/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-amd-ryzen7-5700u-16gb-ram-ssd-512gb-15-6-full-hd-ips-amd-radeon-linux-prata-a515-45-r74n/p/ab40jbeagh/in/nota/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ultrafino-ideapad-1-r5-7520u-8gb-512gb-ssd-windows-11-15-6-82x5000gbr-cloud-grey/p/jak6cea937/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-8gb-ram-512gb-ssd-windows-11-tela-156-fhd-blue-nj987w/p/hg7d6a0113/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-intel-core-i5-8gb-ram-ssd-512gb-156-full-hd-windows-11-np750xgj-kg3br/p/238406900/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-positivo-vision-c14-lumina-bar-intel-celeron-dual-core-linux-8gb-240gb-ssd-14-hd-cinza/p/dfk5ec696g/in/ptvm/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-hp-256-g9-intel-core-i5-8gb-256gb-ssd-156-windows-11-home/p/degkjaj4ja/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-360-intel-core-i5-1235u-windows-11-home-16gb-512gb-ssd-13-3-full-hd/p/kkdhhc3a0k/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-loq-15irh8-intel-core-i5-12450h-15-6-geforce-rtx-2050-512gb-8gb-windows-11/p/je2fghfkg6/in/ntbg/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-intel-core-i5-8gb-ram-ssd-256gb-156-full-hd-windows-11-np750xgj-kg4br/p/238406500/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-intel-core-i3-8gb-ram-ssd-256gb-156-full-hd-windows-11-np750xgj-kg5br/p/238407300/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i5-8gb-256-gb-ssd-tela-15-6-windows-11-home/p/dkg2d9b7c3/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i7-1255u-16gb-512gb-ssd-windows-11-home-15-6-82vy000nbr/p/akbj5ehbe9/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-e1504ga-intel-core-i3-n305-4gb-ram-256gb-ssd-linux-keepos-tela-156-fhd-silver-nj447/p/chgbd7eccd/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-intel-celeron-w11-home-4gb-128gb-ssd-15-6-polegadas-x515ma-br933ws/p/bk0cff6d69/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i1300-m80p-15-6-full-hd-13a-gen-intel-core-i7-16gb-1tb-ssd-win-11-preto-carbono/p/fc4ejd9k41/in/nodl/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i3-1215u-4gb-256gb-ssd-tela-15-6-windows-11-home-np550xed-kt3br/p/bk25hec5kk/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ultrafino-ideapad-1-r3-7320u-4gb-256gb-ssd-windows-home-15-6-82x5000ebr-cloud-grey/p/bkcbg28d1h/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-celeron-n4020-4gb-128gb-w11-office-15-6-82vx0001br/p/fa8f38fde5/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-intel-core-i5-16gb-ram-512gb-156-full-hd-keepos-x1502za-bq1808/p/237245500/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-windows-11-home-intel-core-i7-1255u-8gb-512gb-ssd-15-6-full-hd-led-grafite-np550xed-ks2br/p/gd3aa20294/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-gamer-dell-g15-i1300-m30p-15-6-fhd-13a-geracao-intel-core-i5-16gb-512gb-ssd-nvidia-rtx-3050-windows-11/p/jbdda11749/in/nodl/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1-intel-core-i3-1215u-15-6-intel-uhd-graphics-128gb-ssd-4gb-ram-linux/p/kbke9a6317/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-e1504fa-amd-ryzen-5-7520u-8gb-ram-256gb-ssd-linux-keepos-tela-156-fhd-black-nj731/p/jh9c6ffhdk/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book3-360-windows-11-home-intel-core-i5-1335u-8-gb-256-gb-ssd-13-3-full-hd-amoled-1-16-kg/p/djc87fd7b4/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-intel-core-i5-12450h-8gb-ram-256gb-ssd-acer-aspire-5-a515-57-51w5-tela-full-hd-15-6-linux/p/ha5jff893d/in/nota/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-windows-11-home-intel-core-i5-16gb-512gb-ssd-15-6-full-hd-led-1-55-kg/p/eja386agb5/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i3-1215u-4gb-256gb-ssd-windows-11-home-14-83af0000br/p/cgaede9843/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-u10p-15-6-full-hd-12a-geracao-intel-core-i3-8gb-256gb-ssd-linux-preto/p/fh35h0dabe/in/nodl/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-m30p-15-6-full-hd-12a-geracao-intel-core-i5-16gb-512gb-ssd-windows-11-preto/p/jed4b37a66/in/nodl/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i5-1235u-8gb-512gb-ssd-windows-11-home-14-83af000ebr/p/fa2eb83h76/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i1300-m50p-15-6-full-hd-13a-gen-intel-core-i5-16gb-512gb-ssd-win-11-preto-carbono/p/cba2e4dkk5/in/nodl/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-16gb-ram-512gb-ssd-linux-keepos-tela-156-fhd-blue-nj931/p/kk5jkbadb5/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-amd-ryzen-r5-5720u-8gb-ram-256gb-ssd-acer-aspire-3-a315-24p-r611-tela-hd-156-windows-11/p/jd01639k02/in/nota/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-u45p-15-6-full-hd-12a-geracao-intel-core-i7-16gb-512gb-ssd-linux-preto/p/af6h8jkg9h/in/nodl/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-acer-swift-3-intel-core-i5-8gb-1tb-ssd-14-full-hd-windows-11-sf314-511-561n/p/235821900/in/nota/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-i3-1215u-4gb-256gb-ssd-linux-15-6-82vys00600-cloud-grey/p/ad59fec5ke/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i7-1255u-12gb-512gb-ssd-linux-15-6-82vys01000/p/gebkcj74g3/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i3-1215u-4gb-256gb-ssd-linux-14-83afs00500/p/kfjbccbede/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-macbook-air-133-apple-m1-8gb-256gb-ssd-cinza-espacial/p/227625300/in/mack/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-loq-intel-core-i5-12450h-16gb-512gb-ssd-rtx-2050-15-6-fhd-w11-83eu0001br/p/hed5099hag/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ultrafino-ideapad-1-i3-1215u-8gb-256gb-ssd-windows-home-15-6-82vy000sbr-cloud-grey/p/hbh5e486dc/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-amd-ryzen-7-5700u-linux-16gb-ram-512gb-ssd-156-full-hd-cinza-grafite/p/ad70f1kdck/in/fe15/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-multi-legacy-book-pc260-intel-celeron-4gb-64gb-emmc-14-lcd-windows-10/p/228805400/in/nmls/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-8gb-ram-512gb-ssd-linux-keepos-tela-156-fhd-blue-nj983/p/gga51eg2c9/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-360-intel-core-i5-1235u-windows-11-home-8gb-256gb-ssd-13-3-full-hd/p/gfd18f1d65/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-x515ma-tela-156-polegadas-intel-celeron-128gb-4gb-ram/p/ec914k6d4k/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-u15p-15-6-full-hd-12a-geracao-intel-core-i3-8gb-512gb-ssd-linux-preto/p/cbgkfd6kj6/in/nodl/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i3-1215u-windows-11-home-4gb-256gb-ssd-15-6-full-hd-led/p/hj3jejakae/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-hq-joy-intel-core-i7-11390h-16gb-ddr4-ssd-512gb-nvme-tela-15-6-full-hd-windows-11-cinza-nhj-w11h-ci72/p/ck8dedc456/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book3-360-windows-11-home-intel-core-i7-1360p-16gb-1-tb-ssd-15-6-full-hd-amoled-1-46-kg/p/jdhc649k7h/in/nsbo/</t>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-8gb-ram-512gb-ssd-windows-11-tela-156-fhd-silver-nj986w/p/df9cc36d3d/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-i5-1235u-16gb-512gb-ssd-windows-11-home-15-6-82vy000xbr-cloud-grey/p/eh7528d7da/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-v14-amd-r5-5625u-8gb-256gb-ssd-w11-pro-14-fhd-82un000gbr/p/ea866b633b/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-a515-57-58w1-intel-core-i5-12a-geracao-linux-gutta-8gb-256ssd-156-fhd/p/hj284ghceh/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book3-ultra-windows-11-home-intel-core-i9-13900h-32gb-1tb-ssd-16-wqxga-amoled-2x-1-79-kg/p/kgd08a6c25/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-16-intel-core-i7-1255u-16gb-512gb-ssd-tela-16-win-11-x1605za-mb313w/p/jhe9j4d7b9/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-16-x1605za-mb312w-intel-core-i7-1255u-35-ghz-16gb-ram-256gb-ssd-windows-11-home-intel-iris-xe-16-full-hd-prata-metalico/p/ja59j21e7h/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-intel-core-i5-10210u-linux-8gb-256gb-ssd-full-hd-cinza-escuro/p/bc4g79g37d/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-asus-tuf-gaming-f15-fx507zc4-hn113w-intel-core-i7-12700h-23-ghz-16gb-ram-512gb-ssd-windows-11-home-nvidia-geforce-rtx-3050-156-144hz/p/fg64kd9hdg/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-15-e1504fa-nj836w-amd-ryzen-5-7520u-28-ghz-8gb-512gb-ssd-windows-11-home-156-full-hd-preto/p/ahb0159a7g/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-windows-11-home-intel-core-i5-8gb-256gb-ssd-15-6-full-hd-led-1-55-kg/p/ha0d079jcb/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-intel-core-i5-1135g7-linux-8gb-ram-256gb-ssd-15-6-full-hd-cinza-grafite/p/gdc5che421/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-2-pro-evo-intel-core-i7-1260p-arc-a350m-16gb-1tb-ssd-win-11-15-6-np950xee-xa1/p/ej1h3f3fbg/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-360-intel-core-7-16gb-1tb-sd-tela-touch-156-grafite-np750qgk-kg1br/p/gceej3agba/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-433-intel-core-i3-6157u-linux-4gb-ram-1tb-hd-14-led-hd-cinza/p/kge68hb0g0/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-macbook-air-apple-tela-de-retina-13-m2-8gb-ram-cpu-8-nucleos-gpu-10-nucleos-ssd-512gb-prateado-mly03bz-a/p/gc357a2jk1/in/mack/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-legion-slim-5-i7-13700h-16gb-512gb-rtx-4060-8gb-w11-home-16-wqxga-165hz-83d60001br-lenovo/p/hh19j03392/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/macbook-air-133-apple-m1-8gb-256gb-ssd-prateado/p/227625500/in/mack/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-macbook-air-apple-tela-de-retina-13-m1-8gb-ram-cpu-8-nucleos-gpu-7-nucleos-ssd-256gb-cinza-espacial-mgn63bz-a/p/bdk4e319kg/in/mack/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-v14-amd-r5-5625u-8gb-256gb-ssd-w11-home-14-fhd-82un000cbr/p/he83hha659/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-vjfe54f11x-b2711h-intel-core-i7-16gb-ram-ssd-512gb-156-full-hd-windows-11-3343475/p/237258000/in/fe15/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-16-intel-core-i7-8gb-256gb-ssd-16-windows-11-x1605za-mb310w/p/237655800/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-intel-core-i5-1135g7-linux-16gb-512gb-ssd-full-hd-cinza-grafite/p/hkbggbacbb/in/fe15/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-intel-quadcore-6gb-ram-ssd-64gb-tela-14-1-ips-usb-3-brazil-pc/p/jghh8ef3ea/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i5-1235u-windows-11-home-8gb-256gb-ssd-15-6-full-hd-led/p/aej06j4d3k/in/nsbo/</t>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i1300-m40p-15-6-full-hd-13a-gen-intel-core-i5-8gb-1tb-ssd-win-11-preto-carbono/p/ga23h5bc1b/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-dell-g15-i1300-m20p-15-6-fhd-13a-geracao-intel-core-i5-8gb-512gb-ssd-nvidia-rtx-3050-windows-11/p/fad88c4kj9/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-8gb-ram-256gb-ssd-linux-keepos-tela-156-fhd-blue-nj982/p/dhgb655g44/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-book-i3-8gb-256gb-ssd-156-windows-np550xdakv3br/p/jak91jc3cd/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-amd-ryzen-7-5700u-windows-11-home-16gb-512gb-ssd-full-hd-prata-titanio/p/ka59gc9c7k/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i1300-u60p-15-6-full-hd-13a-gen-intel-core-i5-16gb-1tb-ssd-linux-preto-carbono/p/fkgae357j4/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-x515-intel-celeron-n4020-4gb-ddr4-128gb-ssd-tela-15-6-windows-11-home-cinza-x515ma-br933ws/p/jjajd3a3dg/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-16-x1605za-mb310w-intel-core-i7-1255u-35-ghz-8gb-ram-256gb-ssd-windows-11-home-intel-uhd-16-full-hd-prata-metalico/p/eae61ghbfh/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i1300-m60p-15-6-full-hd-13a-gen-intel-core-i5-16gb-1tb-ssd-win-11-preto-carbono/p/fg2hhg4a06/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/macbook-air-apple-13-m3-cpu-de-8-nucleos-gpu-de-8-nucleos-8gb-ram-ssd-256gb-cinza-espacial-mrxn3bz-a/p/ja96940e8b/in/mack/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1500ea-ej3665w-intel-core-i3-1115g4-4gb-256gb-ssd-tela-15-6-polegadas-windows-11/p/fa4he7e85g/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-intel-core-i5-32gb-1tb-ssd-156-full-hd-windows-11-fe15-vjfe55f11x-b0211h/p/jda7c32ddd/in/note/</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1016,10 +1808,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1027,10 +1819,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1038,10 +1830,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1049,10 +1841,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1060,10 +1852,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>458</v>
+        <v>370</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1071,10 +1863,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>367</v>
+        <v>460</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1082,10 +1874,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1383</v>
+        <v>1393</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1093,10 +1885,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1104,10 +1896,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1102</v>
+        <v>1113</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1115,10 +1907,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1126,10 +1918,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1137,10 +1929,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1148,10 +1940,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1162,7 +1954,7 @@
         <v>301</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1173,7 +1965,7 @@
         <v>146</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1181,10 +1973,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>361</v>
+        <v>781</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1192,10 +1984,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>781</v>
+        <v>361</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1206,7 +1998,7 @@
         <v>113</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1214,10 +2006,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>680</v>
+        <v>411</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1225,10 +2017,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>411</v>
+        <v>680</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1239,7 +2031,7 @@
         <v>712</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1247,10 +2039,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1261,7 +2053,7 @@
         <v>929</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1269,10 +2061,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1283,7 +2075,238 @@
         <v>1567</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>52</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>279</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>726</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>786</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>268</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>124</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>325</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>188</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>816</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>273</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>870</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>598</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>364</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>107</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>144</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>560</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>126</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1325</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>175</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>590</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>206</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1313,6 +2336,27 @@
     <hyperlink ref="C24" r:id="rId23"/>
     <hyperlink ref="C25" r:id="rId24"/>
     <hyperlink ref="C26" r:id="rId25"/>
+    <hyperlink ref="C27" r:id="rId26"/>
+    <hyperlink ref="C28" r:id="rId27"/>
+    <hyperlink ref="C29" r:id="rId28"/>
+    <hyperlink ref="C30" r:id="rId29"/>
+    <hyperlink ref="C31" r:id="rId30"/>
+    <hyperlink ref="C32" r:id="rId31"/>
+    <hyperlink ref="C33" r:id="rId32"/>
+    <hyperlink ref="C34" r:id="rId33"/>
+    <hyperlink ref="C35" r:id="rId34"/>
+    <hyperlink ref="C36" r:id="rId35"/>
+    <hyperlink ref="C37" r:id="rId36"/>
+    <hyperlink ref="C38" r:id="rId37"/>
+    <hyperlink ref="C39" r:id="rId38"/>
+    <hyperlink ref="C40" r:id="rId39"/>
+    <hyperlink ref="C41" r:id="rId40"/>
+    <hyperlink ref="C42" r:id="rId41"/>
+    <hyperlink ref="C43" r:id="rId42"/>
+    <hyperlink ref="C44" r:id="rId43"/>
+    <hyperlink ref="C45" r:id="rId44"/>
+    <hyperlink ref="C46" r:id="rId45"/>
+    <hyperlink ref="C47" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1320,7 +2364,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1339,827 +2383,2081 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>130</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="B7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B8">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>134</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>135</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>136</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>137</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="B12">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>138</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>139</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>140</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>141</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="B16">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>142</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>143</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>144</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>145</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>146</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="B21">
         <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>147</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B22">
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>148</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>149</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>150</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="B25">
         <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>152</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="B27">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>153</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>154</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>155</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>156</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="B31">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>157</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="B32">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>158</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>159</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>160</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>161</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="B36">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>162</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>163</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>164</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>165</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="B40">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>166</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>167</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>168</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>169</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>170</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>171</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B46">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>172</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="B47">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>173</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="B48">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>174</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="B49">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>175</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>176</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>177</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>178</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>179</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="B54">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>180</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>181</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>182</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="B57">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>183</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B58">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>184</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="B59">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>185</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>186</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="B61">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="B62">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>188</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>189</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>190</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>191</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="B66">
         <v>31</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>192</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="B67">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>193</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>194</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="B69">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>195</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="B70">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>196</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>197</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>198</v>
+        <v>349</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>199</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>200</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>201</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78">
         <v>51</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C78" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81">
+        <v>66</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83">
+        <v>13</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85">
+        <v>20</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87">
+        <v>17</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90">
+        <v>33</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92">
+        <v>33</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95">
+        <v>39</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98">
+        <v>88</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99">
+        <v>69</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100">
+        <v>15</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>193</v>
+      </c>
+      <c r="B102">
+        <v>37</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>194</v>
+      </c>
+      <c r="B103">
+        <v>11</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>195</v>
+      </c>
+      <c r="B104">
+        <v>11</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>196</v>
+      </c>
+      <c r="B105">
+        <v>62</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>197</v>
+      </c>
+      <c r="B106">
+        <v>45</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>198</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>199</v>
+      </c>
+      <c r="B108">
+        <v>51</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>201</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
         <v>202</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>203</v>
+      </c>
+      <c r="B112">
+        <v>65</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>204</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>205</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>206</v>
+      </c>
+      <c r="B115">
+        <v>18</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116">
+        <v>46</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117">
+        <v>27</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>209</v>
+      </c>
+      <c r="B118">
+        <v>51</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>210</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>211</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>212</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>213</v>
+      </c>
+      <c r="B122">
+        <v>51</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>214</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>165</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>215</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>216</v>
+      </c>
+      <c r="B126">
+        <v>5</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>217</v>
+      </c>
+      <c r="B127">
+        <v>18</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>218</v>
+      </c>
+      <c r="B128">
+        <v>9</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>219</v>
+      </c>
+      <c r="B129">
+        <v>41</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>220</v>
+      </c>
+      <c r="B130">
+        <v>15</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>221</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>222</v>
+      </c>
+      <c r="B132">
+        <v>22</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>223</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>224</v>
+      </c>
+      <c r="B134">
+        <v>24</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>225</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>226</v>
+      </c>
+      <c r="B136">
+        <v>16</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>227</v>
+      </c>
+      <c r="B137">
+        <v>20</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>227</v>
+      </c>
+      <c r="B138">
+        <v>39</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>228</v>
+      </c>
+      <c r="B139">
+        <v>7</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>229</v>
+      </c>
+      <c r="B140">
+        <v>6</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>230</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>231</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>232</v>
+      </c>
+      <c r="B143">
+        <v>48</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>233</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>234</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>235</v>
+      </c>
+      <c r="B146">
+        <v>22</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>236</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>237</v>
+      </c>
+      <c r="B148">
+        <v>12</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>238</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>239</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>240</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>241</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>242</v>
+      </c>
+      <c r="B153">
+        <v>18</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>243</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>244</v>
+      </c>
+      <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>245</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>246</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>247</v>
+      </c>
+      <c r="B158">
+        <v>9</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>248</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>248</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>249</v>
+      </c>
+      <c r="B161">
+        <v>64</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>250</v>
+      </c>
+      <c r="B162">
+        <v>6</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>251</v>
+      </c>
+      <c r="B163">
+        <v>24</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>252</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>253</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>254</v>
+      </c>
+      <c r="B166">
+        <v>7</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>255</v>
+      </c>
+      <c r="B167">
+        <v>10</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>256</v>
+      </c>
+      <c r="B168">
+        <v>5</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>257</v>
+      </c>
+      <c r="B169">
+        <v>9</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>258</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>259</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>260</v>
+      </c>
+      <c r="B172">
+        <v>9</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>261</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>262</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>263</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>264</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>265</v>
+      </c>
+      <c r="B177">
+        <v>50</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>266</v>
+      </c>
+      <c r="B178">
+        <v>18</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>267</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>268</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>269</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>270</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>271</v>
+      </c>
+      <c r="B183">
+        <v>16</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>272</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>273</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>274</v>
+      </c>
+      <c r="B186">
+        <v>9</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>275</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>276</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>277</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>278</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -2239,6 +4537,120 @@
     <hyperlink ref="C74" r:id="rId73"/>
     <hyperlink ref="C75" r:id="rId74"/>
     <hyperlink ref="C76" r:id="rId75"/>
+    <hyperlink ref="C77" r:id="rId76"/>
+    <hyperlink ref="C78" r:id="rId77"/>
+    <hyperlink ref="C79" r:id="rId78"/>
+    <hyperlink ref="C80" r:id="rId79"/>
+    <hyperlink ref="C81" r:id="rId80"/>
+    <hyperlink ref="C82" r:id="rId81"/>
+    <hyperlink ref="C83" r:id="rId82"/>
+    <hyperlink ref="C84" r:id="rId83"/>
+    <hyperlink ref="C85" r:id="rId84"/>
+    <hyperlink ref="C86" r:id="rId85"/>
+    <hyperlink ref="C87" r:id="rId86"/>
+    <hyperlink ref="C88" r:id="rId87"/>
+    <hyperlink ref="C89" r:id="rId88"/>
+    <hyperlink ref="C90" r:id="rId89"/>
+    <hyperlink ref="C91" r:id="rId90"/>
+    <hyperlink ref="C92" r:id="rId91"/>
+    <hyperlink ref="C93" r:id="rId92"/>
+    <hyperlink ref="C94" r:id="rId93"/>
+    <hyperlink ref="C95" r:id="rId94"/>
+    <hyperlink ref="C96" r:id="rId95"/>
+    <hyperlink ref="C97" r:id="rId96"/>
+    <hyperlink ref="C98" r:id="rId97"/>
+    <hyperlink ref="C99" r:id="rId98"/>
+    <hyperlink ref="C100" r:id="rId99"/>
+    <hyperlink ref="C101" r:id="rId100"/>
+    <hyperlink ref="C102" r:id="rId101"/>
+    <hyperlink ref="C103" r:id="rId102"/>
+    <hyperlink ref="C104" r:id="rId103"/>
+    <hyperlink ref="C105" r:id="rId104"/>
+    <hyperlink ref="C106" r:id="rId105"/>
+    <hyperlink ref="C107" r:id="rId106"/>
+    <hyperlink ref="C108" r:id="rId107"/>
+    <hyperlink ref="C109" r:id="rId108"/>
+    <hyperlink ref="C110" r:id="rId109"/>
+    <hyperlink ref="C111" r:id="rId110"/>
+    <hyperlink ref="C112" r:id="rId111"/>
+    <hyperlink ref="C113" r:id="rId112"/>
+    <hyperlink ref="C114" r:id="rId113"/>
+    <hyperlink ref="C115" r:id="rId114"/>
+    <hyperlink ref="C116" r:id="rId115"/>
+    <hyperlink ref="C117" r:id="rId116"/>
+    <hyperlink ref="C118" r:id="rId117"/>
+    <hyperlink ref="C119" r:id="rId118"/>
+    <hyperlink ref="C120" r:id="rId119"/>
+    <hyperlink ref="C121" r:id="rId120"/>
+    <hyperlink ref="C122" r:id="rId121"/>
+    <hyperlink ref="C123" r:id="rId122"/>
+    <hyperlink ref="C124" r:id="rId123"/>
+    <hyperlink ref="C125" r:id="rId124"/>
+    <hyperlink ref="C126" r:id="rId125"/>
+    <hyperlink ref="C127" r:id="rId126"/>
+    <hyperlink ref="C128" r:id="rId127"/>
+    <hyperlink ref="C129" r:id="rId128"/>
+    <hyperlink ref="C130" r:id="rId129"/>
+    <hyperlink ref="C131" r:id="rId130"/>
+    <hyperlink ref="C132" r:id="rId131"/>
+    <hyperlink ref="C133" r:id="rId132"/>
+    <hyperlink ref="C134" r:id="rId133"/>
+    <hyperlink ref="C135" r:id="rId134"/>
+    <hyperlink ref="C136" r:id="rId135"/>
+    <hyperlink ref="C137" r:id="rId136"/>
+    <hyperlink ref="C138" r:id="rId137"/>
+    <hyperlink ref="C139" r:id="rId138"/>
+    <hyperlink ref="C140" r:id="rId139"/>
+    <hyperlink ref="C141" r:id="rId140"/>
+    <hyperlink ref="C142" r:id="rId141"/>
+    <hyperlink ref="C143" r:id="rId142"/>
+    <hyperlink ref="C144" r:id="rId143"/>
+    <hyperlink ref="C145" r:id="rId144"/>
+    <hyperlink ref="C146" r:id="rId145"/>
+    <hyperlink ref="C147" r:id="rId146"/>
+    <hyperlink ref="C148" r:id="rId147"/>
+    <hyperlink ref="C149" r:id="rId148"/>
+    <hyperlink ref="C150" r:id="rId149"/>
+    <hyperlink ref="C151" r:id="rId150"/>
+    <hyperlink ref="C152" r:id="rId151"/>
+    <hyperlink ref="C153" r:id="rId152"/>
+    <hyperlink ref="C154" r:id="rId153"/>
+    <hyperlink ref="C155" r:id="rId154"/>
+    <hyperlink ref="C156" r:id="rId155"/>
+    <hyperlink ref="C157" r:id="rId156"/>
+    <hyperlink ref="C158" r:id="rId157"/>
+    <hyperlink ref="C159" r:id="rId158"/>
+    <hyperlink ref="C160" r:id="rId159"/>
+    <hyperlink ref="C161" r:id="rId160"/>
+    <hyperlink ref="C162" r:id="rId161"/>
+    <hyperlink ref="C163" r:id="rId162"/>
+    <hyperlink ref="C164" r:id="rId163"/>
+    <hyperlink ref="C165" r:id="rId164"/>
+    <hyperlink ref="C166" r:id="rId165"/>
+    <hyperlink ref="C167" r:id="rId166"/>
+    <hyperlink ref="C168" r:id="rId167"/>
+    <hyperlink ref="C169" r:id="rId168"/>
+    <hyperlink ref="C170" r:id="rId169"/>
+    <hyperlink ref="C171" r:id="rId170"/>
+    <hyperlink ref="C172" r:id="rId171"/>
+    <hyperlink ref="C173" r:id="rId172"/>
+    <hyperlink ref="C174" r:id="rId173"/>
+    <hyperlink ref="C175" r:id="rId174"/>
+    <hyperlink ref="C176" r:id="rId175"/>
+    <hyperlink ref="C177" r:id="rId176"/>
+    <hyperlink ref="C178" r:id="rId177"/>
+    <hyperlink ref="C179" r:id="rId178"/>
+    <hyperlink ref="C180" r:id="rId179"/>
+    <hyperlink ref="C181" r:id="rId180"/>
+    <hyperlink ref="C182" r:id="rId181"/>
+    <hyperlink ref="C183" r:id="rId182"/>
+    <hyperlink ref="C184" r:id="rId183"/>
+    <hyperlink ref="C185" r:id="rId184"/>
+    <hyperlink ref="C186" r:id="rId185"/>
+    <hyperlink ref="C187" r:id="rId186"/>
+    <hyperlink ref="C188" r:id="rId187"/>
+    <hyperlink ref="C189" r:id="rId188"/>
+    <hyperlink ref="C190" r:id="rId189"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output/Notebooks.xlsx
+++ b/Output/Notebooks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="455">
   <si>
     <t>PRODUCT</t>
   </si>
@@ -38,42 +38,42 @@
     <t>Notebook Lenovo IdeaPad 1i Intel Core i5</t>
   </si>
   <si>
+    <t>Notebook Lenovo IdeaPad 1i Intel Core i3 4GB RAM</t>
+  </si>
+  <si>
     <t>Notebook Samsung Galaxy Book 2 Intel Core i3 4GB</t>
   </si>
   <si>
-    <t>Notebook Lenovo IdeaPad 1i Intel Core i3 4GB RAM</t>
-  </si>
-  <si>
     <t>Notebook Samsung Galaxy Book 2 Intel Core i5 8GB</t>
   </si>
   <si>
+    <t>Notebook Acer Aspire 5 Intel Core i5 8GB RAM 256GB SSD 15,6” Full HD Windows 11 A515-57-55B8</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2 Intel Core i3-1215U, Windows 11 Home, 8GB, 256GB SSD, 15.6'' Full HD LED</t>
+  </si>
+  <si>
     <t>Notebook HP G9 Intel Core i3 8GB RAM 256GB SSD 15,6” HD Windows 11</t>
   </si>
   <si>
     <t>Notebook Acer Aspire 5 Intel Core i5 12450H 8GB RAM 512GB SSD 15,6” Full HD Windows 11 A515-57-565J</t>
   </si>
   <si>
-    <t>Notebook Acer Aspire 5 Intel Core i5 8GB RAM 256GB SSD 15,6” Full HD Windows 11 A515-57-55B8</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2 Intel Core i3-1215U, Windows 11 Home, 8GB, 256GB SSD, 15.6'' Full HD LED</t>
-  </si>
-  <si>
     <t>Notebook Lenovo IdeaPad 1i Intel Core i7 12GB RAM</t>
   </si>
   <si>
     <t>Notebook Vaio Intel Core i5 8GB 512GB SSD 15,6”</t>
   </si>
   <si>
+    <t>Notebook Acer Aspire 5 A515-57-57T3 Intel Core i5 12ª Geração Windows 11 Home 8GB 512SSD 15,6" FHD</t>
+  </si>
+  <si>
+    <t>Notebook Compaq Presario 427 Intel Pentium N3700</t>
+  </si>
+  <si>
     <t>Notebook Asus Vivobook 15 Intel Core i5 8GB</t>
   </si>
   <si>
-    <t>Notebook Acer Aspire 5 A515-57-57T3 Intel Core i5 12ª Geração Windows 11 Home 8GB 512SSD 15,6" FHD</t>
-  </si>
-  <si>
-    <t>Notebook Compaq Presario 427 Intel Pentium N3700</t>
-  </si>
-  <si>
     <t>Notebook Positivo Motion Red Q464C Intel Atom</t>
   </si>
   <si>
@@ -83,21 +83,21 @@
     <t>Notebook Positivo Motion Gray Q4128C-S Intel Atom</t>
   </si>
   <si>
+    <t>Notebook Acer AMD Ryzen 5 8GB 256GB SSD 15,6”</t>
+  </si>
+  <si>
+    <t>Notebook Ultra UB320 Intel Pentium</t>
+  </si>
+  <si>
     <t>Notebook Acer Aspire 3 Intel Core i3 8GB 256GB SSD</t>
   </si>
   <si>
-    <t>Notebook Ultra UB320 Intel Pentium</t>
-  </si>
-  <si>
-    <t>Notebook Acer AMD Ryzen 5 8GB 256GB SSD 15,6”</t>
+    <t>Notebook Acer Aspire 5 A515-57-53Z5 Intel Core i5 12ª Geração Windows 11 Home 8GB 256SSD 15.6” FHD</t>
   </si>
   <si>
     <t>Notebook Lenovo Ideapad 3i AMD Ryzen 5 8GB</t>
   </si>
   <si>
-    <t>Notebook Acer Aspire 5 A515-57-53Z5 Intel Core i5 12ª Geração Windows 11 Home 8GB 256SSD 15.6” FHD</t>
-  </si>
-  <si>
     <t>Notebook Acer Aspire 5 Intel Core i5 8GB 256GB SSD</t>
   </si>
   <si>
@@ -107,9 +107,6 @@
     <t>Notebook Positivo Motion C Intel Celeron Dual-Core</t>
   </si>
   <si>
-    <t>Notebook HP Intel Core i3 8GB 256GB SSD 15,6”</t>
-  </si>
-  <si>
     <t>Notebook Asus Intel Celeron 4GB 128 GB SSD</t>
   </si>
   <si>
@@ -122,18 +119,18 @@
     <t>Notebook Asus X515JF-EJ153T Intel Core i5 8GB 256G</t>
   </si>
   <si>
+    <t>Notebook Acer A515-54-59BU Intel Core i5 8GB</t>
+  </si>
+  <si>
+    <t>Notebook HP Intel Core i5 8GB 256GB SSD 15,6”</t>
+  </si>
+  <si>
     <t>Notebook Asus Intel Core i3 4GB 256GB SSD 15,6”</t>
   </si>
   <si>
-    <t>Notebook Acer A515-54-59BU Intel Core i5 8GB</t>
-  </si>
-  <si>
     <t>Notebook Asus VivoBook Intel Core i5 8GB 256GB SSD</t>
   </si>
   <si>
-    <t>Notebook HP Intel Core i5 8GB 256GB SSD 15,6”</t>
-  </si>
-  <si>
     <t>Notebook Asus M515DA-EJ502T AMD Ryzen 5 8GB</t>
   </si>
   <si>
@@ -146,18 +143,9 @@
     <t>Notebook Acer A315-23-R6HC Ryzen 5 8GB</t>
   </si>
   <si>
-    <t>Notebook Positivo Motion Intel Atom</t>
-  </si>
-  <si>
-    <t>Notebook Compaq Presario Snapdragon 7c 4GB</t>
-  </si>
-  <si>
     <t>Notebook Vaio FE15 Intel Core i3 4GB 256GB SSD</t>
   </si>
   <si>
-    <t>Notebook Acer Aspire 3 Intel Core i3 8GB 512GB SSD</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-go-snapdragon-4gb-128gb-ufs-14-full-hd-windows-11-np340xla-k06br/p/236887900/in/nsbo/</t>
   </si>
   <si>
@@ -170,42 +158,42 @@
     <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i5-8gb-ram-ssd-512gb-windows-11-156-15iau7/p/238006100/in/leip/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i3-4gb-ram-256gb-ssd-156-windows-11-82vy000tbr/p/238006500/in/leip/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-2-intel-core-i3-4gb-ssd-256gb-156-full-hd-windows-11-np550xed-kt3br/p/238037400/in/nsbo/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i3-4gb-ram-256gb-ssd-156-windows-11-82vy000tbr/p/238006500/in/leip/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-2-intel-core-i5-8gb-ssd-256gb-156-full-hd-windows-11-np550xed-kf2br/p/238037000/in/nsbo/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-intel-core-i5-8gb-ram-256gb-ssd-156-full-hd-windows-11-a515-57-55b8/p/238056100/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i3-1215u-windows-11-home-8gb-256gb-ssd-15-6-full-hd-led/p/cbhf91f328/in/nsbo/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-hp-g9-intel-core-i3-8gb-ram-256gb-ssd-156-hd-windows-11/p/237612600/in/note/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-intel-core-i5-12450h-8gb-ram-512gb-ssd-156-full-hd-windows-11-a515-57-565j/p/237866400/in/nota/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-intel-core-i5-8gb-ram-256gb-ssd-156-full-hd-windows-11-a515-57-55b8/p/238056100/in/nota/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i3-1215u-windows-11-home-8gb-256gb-ssd-15-6-full-hd-led/p/cbhf91f328/in/nsbo/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i7-12gb-ram-512gb-ssd-156-windows-11-82vy000pbr/p/238006000/in/leip/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-vaio-intel-core-i5-8gb-512gb-ssd-156-full-hd-windows-11-fe15-vjfe55f11x-b0211h/p/236656000/in/fe15/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-a515-57-57t3-intel-core-i5-12a-geracao-windows-11-home-8gb-512ssd-156-fhd/p/fbkh035a3d/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-427-intel-pentium-n3700-4gb-240gb-ssd-141-linux/p/233508700/in/note/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-intel-core-i5-8gb-256gb-ssd-156-linux-endless-os-x1500ea-ej3669/p/236969200/in/nass/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-a515-57-57t3-intel-core-i5-12a-geracao-windows-11-home-8gb-512ssd-156-fhd/p/fbkh035a3d/in/nota/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-427-intel-pentium-n3700-4gb-240gb-ssd-141-linux/p/233508700/in/note/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-positivo-motion-red-q464c-intel-atom-quad-core-4gb-64gb-emmc-64gb-nuvem-141-led/p/135301500/in/ptvm/</t>
   </si>
   <si>
@@ -215,21 +203,21 @@
     <t>https://www.magazineluiza.com.br/notebook-positivo-motion-gray-q4128c-s-intel-atom-4gb-128gb-emmc-141-led-windows-10/p/135295100/in/ptvm/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-amd-ryzen-5-8gb-256gb-ssd-156-windows-11-aspire-3/p/237618600/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-ultra-ub320-intel-pentium-quad-core-4gb-120gb-ssd-141-hd-lcd-ub320/p/230022400/in/note/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-acer-aspire-3-intel-core-i3-8gb-256gb-ssd-156-full-hd-windows-11-a315-58-31uy/p/235821300/in/nota/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-ultra-ub320-intel-pentium-quad-core-4gb-120gb-ssd-141-hd-lcd-ub320/p/230022400/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-acer-amd-ryzen-5-8gb-256gb-ssd-156-windows-11-aspire-3/p/237618600/in/nota/</t>
+    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-a515-57-53z5-intel-core-i5-12a-geracao-windows-11-home-8gb-256ssd-15-6-fhd/p/hab98j32jh/in/nota/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-3i-amd-ryzen-5-8gb-256gb-ssd-15-6-full-hd-linux-82mfs00100/p/234630900/in/leip/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-a515-57-53z5-intel-core-i5-12a-geracao-windows-11-home-8gb-256ssd-15-6-fhd/p/hab98j32jh/in/nota/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-intel-core-i5-8gb-256gb-ssd-156-full-hd-windows-11-home/p/234898600/in/nota/</t>
   </si>
   <si>
@@ -239,39 +227,36 @@
     <t>https://www.magazineluiza.com.br/notebook-positivo-motion-c-intel-celeron-dual-core-4gb-120gb-ssd-14-led-windows-11/p/232783700/in/ptvm/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-hp-intel-core-i3-8gb-256gb-ssd-156-windows-11-g8/p/237133100/in/note/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-asus-intel-celeron-4gb-128-gb-ssd-156-windows-11/p/235180000/in/nass/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-hp-intel-core-i5-8gb-256gb-156-hd-windows-11-256-g8/p/235134900/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad3i-82bs0006br-intel-core-i3-4gb-256gb-ssd-156-lcd-windows-10/p/135302400/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-3-intel-core-i3-8gb-256gb-ssd-156-windows-11-a315-56-39up/p/234898500/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-x515jf-ej153t-intel-core-i5-8gb-256g-ssd-156-full-hd-placa-de-video-2gb-windows-10/p/230019500/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-a515-54-59bu-intel-core-i5-8gb-256gb-ssd-156-led-full-hd-ips-windows-10/p/231755400/in/nota/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-intel-core-i5-8gb-256gb-ssd-156-full-hd-windows-11/p/236720000/in/nota/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-hp-intel-core-i5-8gb-256gb-156-hd-windows-11-256-g8/p/235134900/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad3i-82bs0006br-intel-core-i3-4gb-256gb-ssd-156-lcd-windows-10/p/135302400/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-3-intel-core-i3-8gb-256gb-ssd-156-windows-11-a315-56-39up/p/234898500/in/nota/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-x515jf-ej153t-intel-core-i5-8gb-256g-ssd-156-full-hd-placa-de-video-2gb-windows-10/p/230019500/in/note/</t>
+    <t>https://www.magazineluiza.com.br/notebook-hp-intel-core-i5-8gb-256gb-ssd-156-hd-windows-11-256-g8/p/234099900/in/note/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-asus-intel-core-i3-4gb-256gb-ssd-156-windows-11-x515ja-br2750w/p/234630400/in/nass/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-acer-a515-54-59bu-intel-core-i5-8gb-256gb-ssd-156-led-full-hd-ips-windows-10/p/231755400/in/nota/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-intel-core-i5-8gb-256gb-ssd-156-windows-10-x543ua-dm3457t/p/230019400/in/note/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-hp-intel-core-i5-8gb-256gb-ssd-156-hd-windows-11-256-g8/p/234099900/in/note/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-asus-m515da-ej502t-amd-ryzen-5-8gb-256gb-156-full-hd-windows-10/p/135308500/in/note/</t>
   </si>
   <si>
@@ -284,18 +269,9 @@
     <t>https://www.magazineluiza.com.br/notebook-acer-a315-23-r6hc-ryzen-5-8gb-512gb-ssd-156-led-windows-10/p/231755800/in/nota/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-intel-atom-4gb-128gb-emmc-141-led-windows-10/p/232710700/in/ptvm/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-snapdragon-7c-4gb-128gb-ufs-156-hd-windows-11/p/236879000/in/note/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-intel-core-i3-4gb-256gb-ssd-156-full-hd-windows-11/p/233239600/in/note/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-3-intel-core-i3-8gb-512gb-ssd-156-full-hd-windows-11-a315-58-372m/p/236720100/in/nota/</t>
-  </si>
-  <si>
     <t>Notebook HQ Joy, Intel Celeron, 4GB, SSD 128GB, Tela 14.1", Windows 11, Cinza - NHJ-W11H-CE2</t>
   </si>
   <si>
@@ -308,12 +284,12 @@
     <t>Notebook Acer Aspire 5 A515-45-R36L AMD Ryzen R7 12GB RAM SSD 512 GB 15,6" Full HD Linux NX.AYDAL.00N</t>
   </si>
   <si>
+    <t>Notebook Dell Inspiron I15-I120K-U25P 15.6" Full HD 12ª Geração Intel Core i5 8GB 512GB SSD Linux Preto</t>
+  </si>
+  <si>
     <t>Notebook Gamer Acer Nitro Intel Core i5 8GB 512GB 15,6" 144Hz IPS RTX 2050 Windows 11 ANV15-51-58QL</t>
   </si>
   <si>
-    <t>Notebook Dell Inspiron I15-I120K-U25P 15.6" Full HD 12ª Geração Intel Core i5 8GB 512GB SSD Linux Preto</t>
-  </si>
-  <si>
     <t>Notebook Dell Inspiron I15-I120K-M25P 15.6" Full HD 12ª Geração Intel Core i5 8GB 512GB SSD Windows 11 Preto</t>
   </si>
   <si>
@@ -356,51 +332,51 @@
     <t>Notebook Lenovo Ultrafino IdeaPad 1 R5-7520U 8GB 512GB SSD Windows 11 15.6" 82X5000GBR Cloud Grey</t>
   </si>
   <si>
+    <t>Notebook Positivo Vision C14 Lumina BAR Intel Celeron Dual Core Linux 8GB 240GB SSD 14” HD Cinza</t>
+  </si>
+  <si>
     <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 8GB Ram 512GB SSD Windows 11 Tela 15,6" FHD Blue - NJ987W</t>
   </si>
   <si>
+    <t>Notebook Gamer Lenovo LOQ 15IRH8 Intel Core i5-12450H 15.6" GeForce RTX 2050 512GB 8GB Windows 11</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i Intel Core i7-1255U 16GB 512GB SSD Windows 11 Home 15.6" 82VY000NBR</t>
+  </si>
+  <si>
     <t>Notebook Samsung Galaxy Book4 Intel Core i5 8GB RAM SSD 256GB 15,6" Full HD Windows 11 NP750XGJ-KG4BR</t>
   </si>
   <si>
-    <t>Notebook Positivo Vision C14 Lumina BAR Intel Celeron Dual Core Linux 8GB 240GB SSD 14” HD Cinza</t>
-  </si>
-  <si>
     <t>Notebook HP 256 G9 Intel Core i5 8GB 256GB SSD 15,6" Windows 11 Home</t>
   </si>
   <si>
-    <t>Notebook Gamer Lenovo LOQ 15IRH8 Intel Core i5-12450H 15.6" GeForce RTX 2050 512GB 8GB Windows 11</t>
+    <t>Notebook Samsung Galaxy Book4 Intel Core i3 8GB RAM SSD 256GB 15,6" Full HD Windows 11 NP750XGJ-KG5BR</t>
   </si>
   <si>
     <t>Notebook Samsung Galaxy Book2 Intel CORE I5 8GB 256 GB SSD Tela 15.6 Windows 11 Home</t>
   </si>
   <si>
-    <t>Notebook Samsung Galaxy Book4 Intel Core i3 8GB RAM SSD 256GB 15,6" Full HD Windows 11 NP750XGJ-KG5BR</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i Intel Core i7-1255U 16GB 512GB SSD Windows 11 Home 15.6" 82VY000NBR</t>
-  </si>
-  <si>
     <t>Notebook ASUS Vivobook Go E1504GA Intel Core i3 N305 4GB Ram 256GB SSD Linux KeepOS Tela 15,6" FHD Silver - NJ447</t>
   </si>
   <si>
     <t>Notebook Dell Inspiron I15-I1300-M80P 15.6" Full HD 13ª Gen Intel Core i7 16GB 1TB SSD Win 11 Preto Carbono</t>
   </si>
   <si>
+    <t>Notebook Lenovo Ultrafino IdeaPad 1 R3-7320U 4GB 256GB SSD Windows Home 15.6" 82X5000EBR Cloud Grey</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book3 360, Windows 11 Home, Intel Core i5-1335U, 8 GB, 256 GB SSD, 13.3" Full HD AMOLED, 1.16 kg</t>
+  </si>
+  <si>
     <t>Notebook Asus Intel Celeron W11 Home 4GB 128GB SSD 15.6 Polegadas X515MA-BR933WS</t>
   </si>
   <si>
-    <t>Notebook Lenovo Ultrafino IdeaPad 1 R3-7320U 4GB 256GB SSD Windows Home 15.6" 82X5000EBR Cloud Grey</t>
-  </si>
-  <si>
     <t>Notebook Lenovo IdeaPad 1i Celeron N4020 4GB 128GB W11 + Office 15.6" - 82VX0001BR</t>
   </si>
   <si>
     <t>Notebook Samsung Galaxy Book2, Windows 11 Home, Intel Core i7-1255U, 8GB, 512GB SSD, 15.6" Full HD LED, Grafite - NP550XED-KS2BR</t>
   </si>
   <si>
-    <t>Notebook Samsung Galaxy Book3 360, Windows 11 Home, Intel Core i5-1335U, 8 GB, 256 GB SSD, 13.3" Full HD AMOLED, 1.16 kg</t>
-  </si>
-  <si>
     <t>Notebook Lenovo IdeaPad 1i Intel Core i3-1215U 4GB 256GB SSD Windows 11 Home 14" 83AF0000BR</t>
   </si>
   <si>
@@ -410,337 +386,334 @@
     <t>Notebook ASUS Vivobook 15 Intel Core i5 16GB RAM 512GB 15,6" Full HD KeepOS X1502ZA-BQ1808</t>
   </si>
   <si>
+    <t>Notebook Samsung Galaxy Book2 360 Intel Core i5-1235U, Windows 11 Home, 8GB, 256GB SSD, 13.3'' Full HD</t>
+  </si>
+  <si>
     <t>Notebook Intel Core i5 12450H 8GB RAM 256GB SSD Acer Aspire 5 A515-57-51W5 Tela Full HD 15.6" Linux</t>
   </si>
   <si>
+    <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 16GB Ram 512GB SSD Linux KeepOS Tela 15,6" FHD Blue - NJ931</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Dell G15-i1300-M30P 15.6" FHD 13ª Geração Intel Core i5 16GB 512GB SSD NVIDIA RTX 3050 Windows 11</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook Go E1504FA AMD Ryzen 5 7520U 8GB Ram 256GB SSD Linux KeepOS Tela 15,6" FHD Black - NJ731</t>
+  </si>
+  <si>
     <t>Notebook Dell Inspiron I15-I120K-U10P 15.6" Full HD 12ª Geração Intel Core i3 8GB 256GB SSD Linux Preto</t>
   </si>
   <si>
-    <t>Notebook ASUS Vivobook Go E1504FA AMD Ryzen 5 7520U 8GB Ram 256GB SSD Linux KeepOS Tela 15,6" FHD Black - NJ731</t>
-  </si>
-  <si>
-    <t>Notebook Gamer Dell G15-i1300-M30P 15.6" FHD 13ª Geração Intel Core i5 16GB 512GB SSD NVIDIA RTX 3050 Windows 11</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2 360 Intel Core i5-1235U, Windows 11 Home, 8GB, 256GB SSD, 13.3'' Full HD</t>
+    <t>Notebook Dell Inspiron I15-I120K-U45P 15.6" Full HD 12ª Geração Intel Core i7 16GB 512GB SSD Linux Preto</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book4, Windows 11 Home, Intel Core i5, 16GB, 512GB SSD, 15.6'' Full HD LED, 1.55 kg</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I1300-M50P 15.6" Full HD 13ª Gen Intel Core i5 16GB 512GB SSD Win 11 Preto Carbono</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i Intel Core i5-1235U 8GB 512GB SSD Windows 11 Home 14" 83AF000EBR</t>
+  </si>
+  <si>
+    <t>Notebook VAIO FE15 AMD Ryzen 7- 5700U Linux 16GB RAM 512GB SSD 15,6'' Full HD - Cinza Grafite</t>
+  </si>
+  <si>
+    <t>Notebook AMD Ryzen R5 5720U 8GB RAM 256GB SSD Acer Aspire 3 A315-24P-R611 Tela HD 15,6" Windows 11</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i i3-1215U 4GB 256GB SSD Linux 15.6" 82VYS00600 Cloud Grey</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i Intel Core i3-1215U 4GB 256GB SSD Linux 14" 83AFS00500</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1 Intel Core i3-1215U 15.6" Intel UHD Graphics 128GB SSD 4GB RAM Linux</t>
+  </si>
+  <si>
+    <t>Notebook Acer Swift 3 Intel Core i5 8GB 1TB SSD</t>
   </si>
   <si>
     <t>Notebook Dell Inspiron I15-A0507-M10P 15.6" Full HD AMD Ryzen 5 8GB 512GB SSD Windows 11 Preto Carbono</t>
   </si>
   <si>
-    <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 16GB Ram 512GB SSD Linux KeepOS Tela 15,6" FHD Blue - NJ931</t>
-  </si>
-  <si>
-    <t>Notebook Dell Inspiron I15-I1300-M50P 15.6" Full HD 13ª Gen Intel Core i5 16GB 512GB SSD Win 11 Preto Carbono</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i Intel Core i5-1235U 8GB 512GB SSD Windows 11 Home 14" 83AF000EBR</t>
-  </si>
-  <si>
-    <t>Notebook Acer Swift 3 Intel Core i5 8GB 1TB SSD</t>
-  </si>
-  <si>
-    <t>Notebook AMD Ryzen R5 5720U 8GB RAM 256GB SSD Acer Aspire 3 A315-24P-R611 Tela HD 15,6" Windows 11</t>
-  </si>
-  <si>
-    <t>Notebook VAIO FE15 AMD Ryzen 7- 5700U Linux 16GB RAM 512GB SSD 15,6'' Full HD - Cinza Grafite</t>
-  </si>
-  <si>
-    <t>Notebook Dell Inspiron I15-I120K-U45P 15.6" Full HD 12ª Geração Intel Core i7 16GB 512GB SSD Linux Preto</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1 Intel Core i3-1215U 15.6" Intel UHD Graphics 128GB SSD 4GB RAM Linux</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i i3-1215U 4GB 256GB SSD Linux 15.6" 82VYS00600 Cloud Grey</t>
+    <t>Notebook Lenovo Ultrafino IdeaPad 1 i3-1215U 8GB 256GB SSD Windows Home 15.6" 82VY000SBR Cloud Grey</t>
+  </si>
+  <si>
+    <t>Notebook Multi Legacy Book PC260 Intel</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 8GB Ram 512GB SSD Linux KeepOS Tela 15,6" FHD Blue - NJ983</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i Intel Core i7-1255U 12GB 512GB SSD Linux 15.6" 82VYS01000</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo V14 AMD R5-5625U 8GB 256GB SSD W11 Home 14" FHD 82UN000CBR</t>
+  </si>
+  <si>
+    <t>Notebook Asus X515MA Tela 15,6 Polegadas Intel Celeron 128GB 4GB RAM</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Lenovo LOQ Intel Core i5-12450H 16GB 512GB SSD RTX 2050 15.6" FHD W11 83EU0001BR</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I120K-U15P 15.6" Full HD 12ª Geração Intel Core i3 8GB 512GB SSD Linux Preto</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book3 360, Windows 11 Home, Intel Core i7-1360P, 16GB, 1 TB SSD, 15.6'' Full HD AMOLED, 1.46 kg</t>
+  </si>
+  <si>
+    <t>Notebook MacBook Air Apple, Tela de Retina 13", M1, 8GB RAM, CPU 8 Núcleos, GPU 7 Núcleos, SSD 256GB, Cinza Espacial - MGN63BZ/A</t>
   </si>
   <si>
     <t>Notebook Dell Inspiron I15-A0507-M20P 15.6" Full HD AMD Ryzen 5 8GB 1TB SSD Windows 11 Preto Carbono</t>
   </si>
   <si>
-    <t>Notebook Lenovo IdeaPad 1i Intel Core i3-1215U 4GB 256GB SSD Linux 14" 83AFS00500</t>
+    <t>Notebook Samsung Galaxy Book2 Intel Core i3-1215U, Windows 11 Home, 4GB, 256GB SSD, 15.6" Full HD LED</t>
+  </si>
+  <si>
+    <t>Notebook VAIO FE15 Intel Core i5-1135G7 Linux 16GB 512GB SSD Full HD - Cinza Grafite</t>
+  </si>
+  <si>
+    <t>Notebook Intel Quadcore 6gb Ram Ssd 64gb Tela 14.1 Ips Usb 3</t>
+  </si>
+  <si>
+    <t>Notebook Vaio FE15 VJFE54F11X-B2711H Intel Core i7 16GB RAM SSD 512GB 15,6" Full HD Windows 11 3343475</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2 Intel Core i5-1235U, Windows 11 Home, 8GB, 256GB SSD, 15.6'' Full HD LED</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook Go 15 Intel Core i3 8 GB 512 SSD W11 Home Tela 15.6" FHD, Cool Silver - E1504GA-NJ435W</t>
+  </si>
+  <si>
+    <t>Notebook lenovo ThinkPad L14 Ryzen 5 Pro 16GB 512GB SSD W11 Home 14" FHD 21C60029BO Preto</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book4 360, Windows 11 Home, Intel Core i7, 16GB, 1TB SSD, 15.6'' Full HD AMOLED, 1.46 kg</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad3i 82BU0001BR Intel Celeron</t>
+  </si>
+  <si>
+    <t>Notebook Acer Aspire 5 Intel Core i7-12650H 8GB RAM SSD 256GB 15.6" Full HD Intel UHD Linux Gutta - A515-57-727C</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2 Intel Core i7-1255U, Windows 11 Home, 8GB, 512GB SSD, 15.6'' Full HD LED</t>
+  </si>
+  <si>
+    <t>Notebook MacBook Pro Apple, Tela Retina 14", Chip M3, 8GB RAM, CPU 8 núcleos, GPU 10 Núcleos, SSD 1TB, Prateado - MR7K3BZ/A</t>
+  </si>
+  <si>
+    <t>Notebook Compaq Presario 444 Intel Core i3-6167U Linux 4GB 240GB SSD 14,1" LED HD - Cinza</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book 3 360, Evo Intel Core i5 1335U, 16GB, 512 SSD, 13,3" - NP730QFG-KF1BR</t>
+  </si>
+  <si>
+    <t>Notebook Asus Vivobook 16 Intel Core i7 8GB 256GB</t>
+  </si>
+  <si>
+    <t>Notebook HP 250 G9 15.6 HD I5-1235U 8GB SSD 256GB Windows 11 Pro Cinza</t>
+  </si>
+  <si>
+    <t>Notebook intel Core I5 Acer Aspire 5 8GB RAM 256GB Tela 15'6</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i i5-1235U 8GB 512GB SSD Windows Home 15.6" 82VY000QBR Cloud Grey</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book4, Windows 11 Home, Intel Core i5, 8GB, 512GB SSD, 15.6'' Full HD LED, 1.55 kg</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book 3 360, Evo Intel Core i7 1360P, 16GB, 512 SSD, 15,6" - NP750QFG-KS1BR</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad3i 82BS0002BR Intel Core i3</t>
+  </si>
+  <si>
+    <t>Notebook HP 256-G9 Intel Core i3 8gb 256gb SSD 15,6" Windows 11 7Z3R2LA</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo T440 I5 8gb Ssd 256gb Win 10 Pro</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I120K-M45M 15.6" Full HD 12ª Geração Intel Core i7 16GB 512GB SSD Windows 11 + Mouse WM126</t>
+  </si>
+  <si>
+    <t>Notebook Compaq Presario CQ-25 Intel Pentium 4GB</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ideapad S145 Intel Core i5 8GB</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I120K-M15P 15.6" Full HD 12ª Geração Intel Core i3 8GB 512GB SSD Windows 11 Preto</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ideapad S145 81V7000CBR</t>
+  </si>
+  <si>
+    <t>Notebook Apple MacBook Air, M2 da Apple, com 10 GPU, 8GB RAM, 512GB SSD, Estelar - MLY23BZ/A</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Lenovo IdeaPad Gaming 3i AMD Ryzen</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Yoga Slim 6 Intel Core i7-1260P 16GB 512GB SSD Intel Iris Xe W11 14" 83C70001BR</t>
+  </si>
+  <si>
+    <t>Notebook Acer Aspire 3 A315-23G-R2SE AMD Ryzen 5</t>
+  </si>
+  <si>
+    <t>Notebook Compaq Presario 454 Intel Core i5 8GB</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad3i 82BS0005BR Intel Core i5</t>
+  </si>
+  <si>
+    <t>Notebook Vaio FE15 Intel Core i5 8GB 512GB SSD</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Motion Intel Atom Quad-Core Windows 10 Home 14.1" - Vermelho-</t>
+  </si>
+  <si>
+    <t>Notebook Galaxy Book3 360 13.3" I5 16GB RAM 512GB SSD Full HD W11 NP730QFG-KF1BR</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ideapad S145 82DJ0001BR</t>
+  </si>
+  <si>
+    <t>Notebook Vaio FE14 VJFE43F11X-B0111H Intel Core i3</t>
+  </si>
+  <si>
+    <t>Notebook VAIO FE15 AMD Ryzen 5-5500U Linux 16GB 512GB SSD Full HD - Prata Titânio</t>
+  </si>
+  <si>
+    <t>Notebook VAIO FE15 AMD Ryzen 7-5700U Linux 32GB RAM 512GB SSD 15.6" Full HD - Cinza Grafite</t>
+  </si>
+  <si>
+    <t>Notebook HP 256-G8 Intel Core i3 8GB 256GB SSD Tela de 15,6" Windows 11 613G3LA</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo V14 i3-1215U 8GB 256GB SSD W11 Pro 14" FHD 82UL0019BR Preto</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ideapad S145 82DJ0003BR Intel Core</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i Intel Core i3-1215U 4GB 256GB SSD Windows 11 Home 15.6" 82VY000UBR</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Motion C4128E Intel Celeron</t>
+  </si>
+  <si>
+    <t>Notebook Gamer ASUS TUF Gaming F15FX507VU RTX4050 Core i7 13620H 8Gb Ram 512Gb SSD Linux 15,6" FHD144Hz Gray- LP151</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Lenovo Ideapad L340 Intel Core i5</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2, Intel Core i7 1255U, 8GB, 512GB SSD, Tela de 15,6", Cinza - NP550XED-KS2BR</t>
+  </si>
+  <si>
+    <t>Notebook Asus VivoBook X543UA-DM3459T</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Motion C41TD</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Gamer Loq, Intel Core i5 12450H, 8GB, 512GB SSD, RTX2050, Tela de 15,6", Cinza - 83EU0000BR</t>
+  </si>
+  <si>
+    <t>Notebook lenovo ThinkPad L14 Ryzen 5 Pro 16GB 512GB SSD W11 Pro 14" FHD 21C60016BO Preto</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo V15 i3-1215U 8GB 256GB SSD W11 home 15" FHD 82UM000KBR Preto</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron 3511 Core I5 11th 20gb 1Tb Ssd Tela 15" Windows 11 + Mochila</t>
+  </si>
+  <si>
+    <t>Notebook Asus VivoBook X543UA-GQ3213T</t>
+  </si>
+  <si>
+    <t>Notebook Asus VivoBook 15 X513EA-EJ1064T</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Legion Slim 5 Intel Core i7-13700H 16GB 1TB RTX 4060 8GB W11 16" WQXGA 83D60000BR</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ultrafino Ideapad 3 AMD Ryzen 5 8GB 256GB SSD WIN11 15.6" Prata + Headphone Bluetooth Branco GT</t>
+  </si>
+  <si>
+    <t>Notebook Compaq Presario CQ-29 Intel Core i5</t>
+  </si>
+  <si>
+    <t>Notebook Vaio FE15 VJFE53F11X-B0211H</t>
+  </si>
+  <si>
+    <t>Notebook Ultra UB420 Intel Core i3 4GB</t>
+  </si>
+  <si>
+    <t>Notebook acer a515 54 579s 8g ssd m.2 nvme 256g intel core i5</t>
+  </si>
+  <si>
+    <t>Notebook Ultra UB423 Intel Core i3 4GB</t>
+  </si>
+  <si>
+    <t>Notebook Gamer ASUS ROG STRIX Gaming G16 G614JU RTX4050 Core i7 16Gb Ram 512GB SSD W11 16" FHD 165Hz Gray - N3380W</t>
+  </si>
+  <si>
+    <t>Notebook Vaio FE15 VJFE52F11X-B2521H Intel Core i3</t>
+  </si>
+  <si>
+    <t>Notebook Compaq Presario CQ-27 Intel Core i3 4GB</t>
+  </si>
+  <si>
+    <t>Notebook Compaq Presario 450 Intel Core i5 8GB</t>
+  </si>
+  <si>
+    <t>Notebook Vaio FE15 VJFE53F11X-B0511H</t>
+  </si>
+  <si>
+    <t>Notebook Vaio FE14 VJFE42F11X-B1721H Intel Core i3</t>
+  </si>
+  <si>
+    <t>NOTEBOOK SAMSUNG INTEL CORE I7 11th 8GB 256SSD WIN11</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Book Core i7-1165G7 Win 118GB 1TB HD 15.6''</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Motion 14 HD Intel i3-7020U 1TB 4GB Linux Cinza Escuro</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ideapad 1 Ryzen 5-7520u 8gb 256gb Win11 15,6</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Dell 5490 I7 8th 16gb Ssd 480gb</t>
+  </si>
+  <si>
+    <t>Notebook samsung core i3 11th 8gb ssd nvme 256gb</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Motion Q4128C Atom Z8350 4GB 128GB Windows10 14" - 3002030</t>
   </si>
   <si>
     <t>Notebook Macbook Air 13,3” Apple M1 8GB</t>
   </si>
   <si>
-    <t>Notebook Lenovo Ultrafino IdeaPad 1 i3-1215U 8GB 256GB SSD Windows Home 15.6" 82VY000SBR Cloud Grey</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book4, Windows 11 Home, Intel Core i5, 16GB, 512GB SSD, 15.6'' Full HD LED, 1.55 kg</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i Intel Core i7-1255U 12GB 512GB SSD Linux 15.6" 82VYS01000</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 8GB Ram 512GB SSD Linux KeepOS Tela 15,6" FHD Blue - NJ983</t>
-  </si>
-  <si>
-    <t>Notebook Asus X515MA Tela 15,6 Polegadas Intel Celeron 128GB 4GB RAM</t>
-  </si>
-  <si>
-    <t>Notebook Gamer Lenovo LOQ Intel Core i5-12450H 16GB 512GB SSD RTX 2050 15.6" FHD W11 83EU0001BR</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo V14 AMD R5-5625U 8GB 256GB SSD W11 Home 14" FHD 82UN000CBR</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2 Intel Core i3-1215U, Windows 11 Home, 4GB, 256GB SSD, 15.6" Full HD LED</t>
-  </si>
-  <si>
-    <t>Notebook Dell Inspiron I15-I120K-U15P 15.6" Full HD 12ª Geração Intel Core i3 8GB 512GB SSD Linux Preto</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book3 360, Windows 11 Home, Intel Core i7-1360P, 16GB, 1 TB SSD, 15.6'' Full HD AMOLED, 1.46 kg</t>
-  </si>
-  <si>
-    <t>Notebook lenovo ThinkPad L14 Ryzen 5 Pro 16GB 512GB SSD W11 Home 14" FHD 21C60029BO Preto</t>
-  </si>
-  <si>
-    <t>Notebook Predator Neo PHN16-71-72W6 Core i7 13 G. Windows 11 Home 16GB 512SSD RTX 4060 16” WUXGA</t>
-  </si>
-  <si>
-    <t>Notebook VAIO FE15 Intel Core i5-1135G7 Linux 16GB 512GB SSD Full HD - Cinza Grafite</t>
-  </si>
-  <si>
-    <t>Notebook Multi Legacy Book PC260 Intel</t>
-  </si>
-  <si>
-    <t>Notebook Multilaser M11W Prime 2 em 1 Celeron N4020 11.6 64GB 4GB Win11 Home Prata + Microsoft 365 Personal - PC280</t>
-  </si>
-  <si>
-    <t>Notebook intel Core I5 Acer Aspire 5 8GB RAM 256GB Tela 15'6</t>
-  </si>
-  <si>
-    <t>Notebook Asus Vivobook 16 Intel Core i7 8GB 256GB</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book4 360, Windows 11 Home, Intel Core i7, 16GB, 1TB SSD, 15.6'' Full HD AMOLED, 1.46 kg</t>
-  </si>
-  <si>
-    <t>Notebook Intel Quadcore 6gb Ram Ssd 64gb Tela 14.1 Ips Usb 3</t>
-  </si>
-  <si>
-    <t>Notebook Vaio FE15 VJFE54F11X-B2711H Intel Core i7 16GB RAM SSD 512GB 15,6" Full HD Windows 11 3343475</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2 Intel Core i5-1235U, Windows 11 Home, 8GB, 256GB SSD, 15.6'' Full HD LED</t>
-  </si>
-  <si>
-    <t>Notebook Compaq Presario 444 Intel Core i3-6167U Linux 4GB 240GB SSD 14,1" LED HD - Cinza</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook Go 15 Intel Core i3 8 GB 512 SSD W11 Home Tela 15.6" FHD, Cool Silver - E1504GA-NJ435W</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad3i 82BU0001BR Intel Celeron</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book4, Windows 11 Home, Intel Core i5, 8GB, 512GB SSD, 15.6'' Full HD LED, 1.55 kg</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2 Intel Core i7-1255U, Windows 11 Home, 8GB, 512GB SSD, 15.6'' Full HD LED</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book 3 360, Evo Intel Core i5 1335U, 16GB, 512 SSD, 13,3" - NP730QFG-KF1BR</t>
-  </si>
-  <si>
-    <t>Notebook Compaq Presario CQ-25 Intel Pentium 4GB</t>
-  </si>
-  <si>
-    <t>Notebook Dell Inspiron I15-I120K-M15P 15.6" Full HD 12ª Geração Intel Core i3 8GB 512GB SSD Windows 11 Preto</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i i5-1235U 8GB 512GB SSD Windows Home 15.6" 82VY000QBR Cloud Grey</t>
-  </si>
-  <si>
-    <t>Notebook Dell Inspiron I15-I120K-M45M 15.6" Full HD 12ª Geração Intel Core i7 16GB 512GB SSD Windows 11 + Mouse WM126</t>
-  </si>
-  <si>
-    <t>Notebook HP 256-G9 Intel Core i3 8gb 256gb SSD 15,6" Windows 11 7Z3R2LA</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad3i 82BS0002BR Intel Core i3</t>
-  </si>
-  <si>
-    <t>Notebook HP 250 G9 15.6 HD I5-1235U 8GB SSD 256GB Windows 11 Pro Cinza</t>
-  </si>
-  <si>
-    <t>Notebook Gamer Lenovo IdeaPad Gaming 3i AMD Ryzen</t>
-  </si>
-  <si>
-    <t>Notebook Apple MacBook Air, M2 da Apple, com 10 GPU, 8GB RAM, 512GB SSD, Estelar - MLY23BZ/A</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book 3 360, Evo Intel Core i7 1360P, 16GB, 512 SSD, 15,6" - NP750QFG-KS1BR</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo Ideapad S145 Intel Core i5 8GB</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo Yoga Slim 6 Intel Core i7-1260P 16GB 512GB SSD Intel Iris Xe W11 14" 83C70001BR</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo T440 I5 8gb Ssd 256gb Win 10 Pro</t>
-  </si>
-  <si>
-    <t>Notebook Acer Aspire 3 A315-23G-R2SE AMD Ryzen 5</t>
-  </si>
-  <si>
-    <t>Notebook Compaq Presario 454 Intel Core i5 8GB</t>
-  </si>
-  <si>
-    <t>Notebook Vaio FE15 Intel Core i5 8GB 512GB SSD</t>
-  </si>
-  <si>
-    <t>Notebook Positivo Motion C41TD</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad3i 82BS0005BR Intel Core i5</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo Ideapad S145 81V7000CBR</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i Intel Core i3-1215U 4GB 256GB SSD Windows 11 Home 15.6" 82VY000UBR</t>
-  </si>
-  <si>
-    <t>Notebook Vaio FE14 VJFE43F11X-B0111H Intel Core i3</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo Ideapad S145 82DJ0001BR</t>
-  </si>
-  <si>
-    <t>Notebook Positivo Motion Intel Atom Quad-Core Windows 10 Home 14.1" - Vermelho-</t>
-  </si>
-  <si>
-    <t>Notebook Gamer Lenovo Ideapad L340 Intel Core i5</t>
-  </si>
-  <si>
-    <t>Notebook VAIO FE15 AMD Ryzen 7-5700U Linux 32GB RAM 512GB SSD 15.6" Full HD - Cinza Grafite</t>
-  </si>
-  <si>
-    <t>Notebook Galaxy Book3 360 13.3" I5 16GB RAM 512GB SSD Full HD W11 NP730QFG-KF1BR</t>
-  </si>
-  <si>
-    <t>Notebook Gamer ASUS TUF Gaming F15FX507VU RTX4050 Core i7 13620H 8Gb Ram 512Gb SSD Linux 15,6" FHD144Hz Gray- LP151</t>
-  </si>
-  <si>
-    <t>Notebook Positivo Motion C4128E Intel Celeron</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo V14 i3-1215U 8GB 256GB SSD W11 Pro 14" FHD 82UL0019BR Preto</t>
-  </si>
-  <si>
-    <t>Notebook VAIO FE15 AMD Ryzen 5-5500U Linux 16GB 512GB SSD Full HD - Prata Titânio</t>
-  </si>
-  <si>
-    <t>Notebook HP 256-G8 Intel Core i3 8GB 256GB SSD Tela de 15,6" Windows 11 613G3LA</t>
-  </si>
-  <si>
-    <t>Notebook Asus VivoBook X543UA-DM3459T</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo Ideapad S145 82DJ0003BR Intel Core</t>
-  </si>
-  <si>
-    <t>Notebook Asus VivoBook X543UA-GQ3430T</t>
-  </si>
-  <si>
-    <t>Notebook lenovo ThinkPad L14 Ryzen 5 Pro 16GB 512GB SSD W11 Pro 14" FHD 21C60016BO Preto</t>
-  </si>
-  <si>
-    <t>Notebook Dell Inspiron 3511 Core I5 11th 20gb 1Tb Ssd Tela 15" Windows 11 + Mochila</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo Gamer Loq, Intel Core i5 12450H, 8GB, 512GB SSD, RTX2050, Tela de 15,6", Cinza - 83EU0000BR</t>
-  </si>
-  <si>
-    <t>Notebook Asus VivoBook 15 X513EA-EJ1064T</t>
-  </si>
-  <si>
-    <t>Notebook Gamer Legion Slim 5 Intel Core i7-13700H 16GB 1TB RTX 4060 8GB W11 16" WQXGA 83D60000BR</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo Ultrafino Ideapad 3 AMD Ryzen 5 8GB 256GB SSD WIN11 15.6" Prata + Headphone Bluetooth Branco GT</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2, Intel Core i7 1255U, 8GB, 512GB SSD, Tela de 15,6", Cinza - NP550XED-KS2BR</t>
-  </si>
-  <si>
-    <t>Notebook Asus VivoBook X543UA-GQ3213T</t>
-  </si>
-  <si>
-    <t>Notebook Vaio FE15 VJFE52F11X-B2211H Intel Core i5</t>
-  </si>
-  <si>
-    <t>Notebook Compaq Presario CQ-29 Intel Core i5</t>
-  </si>
-  <si>
-    <t>Notebook Vaio FE15 VJFE53F11X-B0211H</t>
-  </si>
-  <si>
-    <t>Notebook acer a515 54 579s 8g ssd m.2 nvme 256g intel core i5</t>
-  </si>
-  <si>
-    <t>Notebook Ultra UB420 Intel Core i3 4GB</t>
-  </si>
-  <si>
-    <t>Notebook Ultra UB423 Intel Core i3 4GB</t>
-  </si>
-  <si>
-    <t>Notebook Vaio FE15 VJFE52F11X-B2521H Intel Core i3</t>
-  </si>
-  <si>
-    <t>Notebook Gamer ASUS ROG STRIX Gaming G16 G614JU RTX4050 Core i7 16Gb Ram 512GB SSD W11 16" FHD 165Hz Gray - N3380W</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo V15 i3-1215U 8GB 256GB SSD W11 home 15" FHD 82UM000KBR Preto</t>
-  </si>
-  <si>
-    <t>Notebook Compaq Presario CQ-27 Intel Core i3 4GB</t>
-  </si>
-  <si>
-    <t>Notebook Compaq Presario 450 Intel Core i5 8GB</t>
-  </si>
-  <si>
-    <t>Notebook Vaio FE15 VJFE53F11X-B0511H</t>
-  </si>
-  <si>
-    <t>NOTEBOOK SAMSUNG INTEL CORE I7 11th 8GB 256SSD WIN11</t>
-  </si>
-  <si>
-    <t>Notebook VAIO FE15 AMD Ryzen 5-5500U Linux 8GB 256GB SSD Full HD - Prata Titânio</t>
-  </si>
-  <si>
-    <t>Notebook Vaio FE14 VJFE42F11X-B1721H Intel Core i3</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Book Core i7-1165G7 Win 118GB 1TB HD 15.6''</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo Ideapad 1 Ryzen 5-7520u 8gb 256gb Win11 15,6</t>
-  </si>
-  <si>
-    <t>Notebook Positivo Motion 14 HD Intel i3-7020U 1TB 4GB Linux Cinza Escuro</t>
-  </si>
-  <si>
-    <t>Notebook samsung core i3 11th 8gb ssd nvme 256gb</t>
-  </si>
-  <si>
-    <t>Notebook Positivo Motion Q4128C Atom Z8350 4GB 128GB Windows10 14" - 3002030</t>
-  </si>
-  <si>
-    <t>Notebook Gamer Dell 5490 I7 8th 16gb Ssd 480gb</t>
+    <t>Notebook Asus Vivobook Pro 15 Core i9 16GB 512GB</t>
+  </si>
+  <si>
+    <t>Chromebook C733-C607 Intel Celeron N4020 4GB 32GB eMMC 11.6' Chrome OS</t>
   </si>
   <si>
     <t>Notebook Ultra Intel W10 Core i5 8gb Ram 1TB HDD Prata Ub531</t>
   </si>
   <si>
-    <t>Chromebook C733-C607 Intel Celeron N4020 4GB 32GB eMMC 11.6' Chrome OS</t>
-  </si>
-  <si>
-    <t>Notebook Acer Aspire 5 Intel Core i7-12650H 8GB RAM SSD 256GB 15.6" Full HD Intel UHD Linux Gutta - A515-57-727C</t>
+    <t>Notebook Samsung Book2 NP550XED-KT3BR Intel CORE I3 1215U 4GB 256 GB SSD Tela 15.6 Full HD LED Antirreflexiva Windows 11 Home</t>
   </si>
   <si>
     <t>Notebook Samsung Galaxy Book2, Intel Core i3-1215U, 4GB, 256GB SSD, Tela 15.6", Windows 11 Home - NP550XED-KT3BR</t>
@@ -749,18 +722,21 @@
     <t>Notebook 2 em 1 Positivo 11.6” Intel N4020 4GB LPDDR4 128GB SSD Windows 11 Pro</t>
   </si>
   <si>
+    <t>Notebook Lenovo Ideapad 3i AMD Ryzen 5 20GB - 512GB SSD 15.6” Full HD Windows 11 82MFS00100</t>
+  </si>
+  <si>
     <t>Notebook VAIO FE15 AMD Ryzen 5-5500U Windows 11 Home 8GB 512GB SSD Full HD - Prata Titânio</t>
   </si>
   <si>
-    <t>Notebook Lenovo Ideapad 3i AMD Ryzen 5 20GB - 512GB SSD 15.6” Full HD Windows 11 82MFS00100</t>
-  </si>
-  <si>
     <t>Notebook Lenovo V14 I5-1235U 8GB 256GB SSD Linux 14" FHD 82ULS00200 Preto</t>
   </si>
   <si>
     <t>Notebook Positivo Motion Gray C464F Intel Celeron Dual Core Windows 11 Home 14,1'' - Cinza - Inclui Microsoft 365*</t>
   </si>
   <si>
+    <t>Ultrabook Lenovo ThinkPad X260, Intel Core i5 6G, SSD 256GB, sl</t>
+  </si>
+  <si>
     <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 8GB Ram 512GB SSD Windows 11 Tela 15,6" FHD Silver - NJ986W</t>
   </si>
   <si>
@@ -776,24 +752,30 @@
     <t>Notebook Samsung Galaxy Book3 Ultra, Windows 11 Home, Intel Core i9-13900H, 32GB, 1TB SSD, 16'' WQXGA+ AMOLED 2x, 1.79 kg</t>
   </si>
   <si>
+    <t>Notebook ASUS VivoBook 16 X1605ZA-MB312W Intel Core i7 1255U 3,5 GHz 16Gb Ram 256Gb Ssd Windows 11 Home Intel Iris Xe 16” Full HD Prata Metálico</t>
+  </si>
+  <si>
     <t>Notebook Asus Vivobook 16, Intel Core i7 1255U, 16GB, 512GB SSD, Tela 16",Win 11 - X1605ZA-MB313W</t>
   </si>
   <si>
-    <t>Notebook ASUS VivoBook 16 X1605ZA-MB312W Intel Core i7 1255U 3,5 GHz 16Gb Ram 256Gb Ssd Windows 11 Home Intel Iris Xe 16” Full HD Prata Metálico</t>
+    <t>Notebook Macbook Air Apple, Tela de Retina 13", M2, 8GB RAM, CPU 8 Núcleos, GPU 10 Núcleos, SSD 512GB, Prateado - MLY03BZ/A</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook Go 15 E1504FA-NJ836W AMD Ryzen 5 7520U 2,8 GHz 8GB 512GB SSD Windows 11 Home 15,6" Full Hd Preto</t>
+  </si>
+  <si>
+    <t>Notebook Gamer ASUS TUF Gaming F15 FX507ZC4-HN113W Intel Core i7 12700H 2,3 GHz 16Gb Ram 512Gb SSD Windows 11 Home NVIDIA GeForce RTX 3050 15,6" 144Hz</t>
   </si>
   <si>
     <t>Notebook VAIO FE15 Intel Core i5-10210U Linux 8GB 256GB SSD Full HD - Cinza Escuro</t>
   </si>
   <si>
-    <t>Notebook Gamer ASUS TUF Gaming F15 FX507ZC4-HN113W Intel Core i7 12700H 2,3 GHz 16Gb Ram 512Gb SSD Windows 11 Home NVIDIA GeForce RTX 3050 15,6" 144Hz</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook Go 15 E1504FA-NJ836W AMD Ryzen 5 7520U 2,8 GHz 8GB 512GB SSD Windows 11 Home 15,6" Full Hd Preto</t>
-  </si>
-  <si>
     <t>Notebook Samsung Galaxy Book4, Windows 11 Home, Intel Core i5, 8GB, 256GB SSD, 15.6'' Full HD LED, 1.55 kg</t>
   </si>
   <si>
+    <t>Notebook Compaq Presario 433 Intel Core i3-6157U Linux 4GB RAM 1TB HD 14" LED HD - Cinza</t>
+  </si>
+  <si>
     <t>Notebook VAIO FE15 Intel Core i5-1135G7 Linux 8GB RAM 256GB SSD 15.6" Full HD - Cinza Grafite</t>
   </si>
   <si>
@@ -803,57 +785,45 @@
     <t>Notebook Samsung Galaxy Book4 360, Intel Core 7, 16GB, 1TB SD, Tela Touch 15,6", Grafite - NP750QGK-KG1BR</t>
   </si>
   <si>
-    <t>Notebook Compaq Presario 433 Intel Core i3-6157U Linux 4GB RAM 1TB HD 14" LED HD - Cinza</t>
-  </si>
-  <si>
-    <t>Notebook Macbook Air Apple, Tela de Retina 13", M2, 8GB RAM, CPU 8 Núcleos, GPU 10 Núcleos, SSD 512GB, Prateado - MLY03BZ/A</t>
-  </si>
-  <si>
     <t>Notebook Gamer Legion Slim 5 i7-13700H 16GB 512GB RTX 4060 8GB W11 Home 16" WQXGA 165Hz 83D60001BR</t>
   </si>
   <si>
     <t>Macbook Air 13,3” Apple M1 8GB 256GB SSD Prateado</t>
   </si>
   <si>
-    <t>Notebook MacBook Air Apple, Tela de Retina 13", M1, 8GB RAM, CPU 8 Núcleos, GPU 7 Núcleos, SSD 256GB, Cinza Espacial - MGN63BZ/A</t>
-  </si>
-  <si>
     <t>Notebook Dell Inspiron I15-I1300-M40P 15.6" Full HD 13ª Gen Intel Core i5 8GB 1TB SSD Win 11 Preto Carbono</t>
   </si>
   <si>
     <t>Notebook Gamer Dell G15-i1300-M20P 15.6" FHD 13ª Geração Intel Core i5 8GB 512GB SSD NVIDIA RTX 3050 Windows 11</t>
   </si>
   <si>
+    <t>Notebook Samsung Book I3 8gb 256gb Ssd 15,6'' Windows NP550XDAKV3BR</t>
+  </si>
+  <si>
     <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 8GB Ram 256GB SSD Linux KeepOS Tela 15,6" FHD Blue - NJ982</t>
   </si>
   <si>
-    <t>Notebook Samsung Book I3 8gb 256gb Ssd 15,6'' Windows NP550XDAKV3BR</t>
+    <t>Notebook Asus X515 Intel Celeron N4020 4GB DDR4 128GB SSD Tela 15.6” Windows 11 Home Cinza - X515MA-BR933WS</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I1300-U60P 15.6" Full HD 13ª Gen Intel Core i5 16GB 1TB SSD Linux Preto Carbono</t>
   </si>
   <si>
     <t>Notebook VAIO FE15 AMD Ryzen 7-5700U Windows 11 Home 16GB 512GB SSD Full HD - Prata Titânio</t>
   </si>
   <si>
-    <t>Notebook Dell Inspiron I15-I1300-U60P 15.6" Full HD 13ª Gen Intel Core i5 16GB 1TB SSD Linux Preto Carbono</t>
-  </si>
-  <si>
-    <t>Notebook Asus X515 Intel Celeron N4020 4GB DDR4 128GB SSD Tela 15.6” Windows 11 Home Cinza - X515MA-BR933WS</t>
+    <t>Notebook Dell Inspiron I15-I1300-M60P 15.6" Full HD 13ª Gen Intel Core i5 16GB 1TB SSD Win 11 Preto Carbono</t>
   </si>
   <si>
     <t>Notebook ASUS VivoBook 16 X1605ZA-MB310W Intel Core i7 1255U 3,5 GHz 8Gb Ram 256Gb Ssd Windows 11 Home Intel UHD 16” Full Hd Prata Metálico</t>
   </si>
   <si>
-    <t>Notebook Dell Inspiron I15-I1300-M60P 15.6" Full HD 13ª Gen Intel Core i5 16GB 1TB SSD Win 11 Preto Carbono</t>
+    <t>Notebook Vaio Intel Core i5 32GB 1TB SSD 15,6” - Full HD Windows 11 FE15 VJFE55F11X-B0211H</t>
   </si>
   <si>
     <t>MacBook Air Apple 13", M3, CPU de 8 Núcleos, GPU de 8 Núcleos, 8GB RAM, SSD 256GB, Cinza Espacial - MRXN3BZ/A</t>
   </si>
   <si>
-    <t>Notebook Asus Vivobook 15 X1500EA-EJ3665W Intel Core I3 1115G4 4GB 256GB SSD Tela 15.6 Polegadas Windows 11</t>
-  </si>
-  <si>
-    <t>Notebook Vaio Intel Core i5 32GB 1TB SSD 15,6” - Full HD Windows 11 FE15 VJFE55F11X-B0211H</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-hq-joy-intel-celeron-4gb-ssd-128gb-tela-14-1-windows-11-cinza-nhj-w11h-ce2/p/caf53d7g25/in/note/</t>
   </si>
   <si>
@@ -866,12 +836,12 @@
     <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-a515-45-r36l-amd-ryzen-r7-12gb-ram-ssd-512-gb-156-full-hd-linux-nx-aydal-00n/p/238329900/in/nota/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-u25p-15-6-full-hd-12a-geracao-intel-core-i5-8gb-512gb-ssd-linux-preto/p/ac0a52j369/in/nodl/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-gamer-acer-nitro-intel-core-i5-8gb-512gb-156-144hz-ips-rtx-2050-windows-11-anv15-51-58ql/p/238306500/in/nota/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-u25p-15-6-full-hd-12a-geracao-intel-core-i5-8gb-512gb-ssd-linux-preto/p/ac0a52j369/in/nodl/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-m25p-15-6-full-hd-12a-geracao-intel-core-i5-8gb-512gb-ssd-windows-11-preto/p/eh7gf69djb/in/nodl/</t>
   </si>
   <si>
@@ -914,51 +884,51 @@
     <t>https://www.magazineluiza.com.br/notebook-lenovo-ultrafino-ideapad-1-r5-7520u-8gb-512gb-ssd-windows-11-15-6-82x5000gbr-cloud-grey/p/jak6cea937/in/leip/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-vision-c14-lumina-bar-intel-celeron-dual-core-linux-8gb-240gb-ssd-14-hd-cinza/p/dfk5ec696g/in/ptvm/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-8gb-ram-512gb-ssd-windows-11-tela-156-fhd-blue-nj987w/p/hg7d6a0113/in/note/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-loq-15irh8-intel-core-i5-12450h-15-6-geforce-rtx-2050-512gb-8gb-windows-11/p/je2fghfkg6/in/ntbg/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i7-1255u-16gb-512gb-ssd-windows-11-home-15-6-82vy000nbr/p/akbj5ehbe9/in/leip/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-intel-core-i5-8gb-ram-ssd-256gb-156-full-hd-windows-11-np750xgj-kg4br/p/238406500/in/nsbo/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-positivo-vision-c14-lumina-bar-intel-celeron-dual-core-linux-8gb-240gb-ssd-14-hd-cinza/p/dfk5ec696g/in/ptvm/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-hp-256-g9-intel-core-i5-8gb-256gb-ssd-156-windows-11-home/p/degkjaj4ja/in/note/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-loq-15irh8-intel-core-i5-12450h-15-6-geforce-rtx-2050-512gb-8gb-windows-11/p/je2fghfkg6/in/ntbg/</t>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-intel-core-i3-8gb-ram-ssd-256gb-156-full-hd-windows-11-np750xgj-kg5br/p/238407300/in/nsbo/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i5-8gb-256-gb-ssd-tela-15-6-windows-11-home/p/dkg2d9b7c3/in/nsbo/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-intel-core-i3-8gb-ram-ssd-256gb-156-full-hd-windows-11-np750xgj-kg5br/p/238407300/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i7-1255u-16gb-512gb-ssd-windows-11-home-15-6-82vy000nbr/p/akbj5ehbe9/in/leip/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-e1504ga-intel-core-i3-n305-4gb-ram-256gb-ssd-linux-keepos-tela-156-fhd-silver-nj447/p/chgbd7eccd/in/note/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i1300-m80p-15-6-full-hd-13a-gen-intel-core-i7-16gb-1tb-ssd-win-11-preto-carbono/p/fc4ejd9k41/in/nodl/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ultrafino-ideapad-1-r3-7320u-4gb-256gb-ssd-windows-home-15-6-82x5000ebr-cloud-grey/p/bkcbg28d1h/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book3-360-windows-11-home-intel-core-i5-1335u-8-gb-256-gb-ssd-13-3-full-hd-amoled-1-16-kg/p/djc87fd7b4/in/nsbo/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-asus-intel-celeron-w11-home-4gb-128gb-ssd-15-6-polegadas-x515ma-br933ws/p/bk0cff6d69/in/nass/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ultrafino-ideapad-1-r3-7320u-4gb-256gb-ssd-windows-home-15-6-82x5000ebr-cloud-grey/p/bkcbg28d1h/in/leip/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-celeron-n4020-4gb-128gb-w11-office-15-6-82vx0001br/p/fa8f38fde5/in/leip/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-windows-11-home-intel-core-i7-1255u-8gb-512gb-ssd-15-6-full-hd-led-grafite-np550xed-ks2br/p/gd3aa20294/in/nsbo/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book3-360-windows-11-home-intel-core-i5-1335u-8-gb-256-gb-ssd-13-3-full-hd-amoled-1-16-kg/p/djc87fd7b4/in/nsbo/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i3-1215u-4gb-256gb-ssd-windows-11-home-14-83af0000br/p/cgaede9843/in/leip/</t>
   </si>
   <si>
@@ -968,343 +938,340 @@
     <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-intel-core-i5-16gb-ram-512gb-156-full-hd-keepos-x1502za-bq1808/p/237245500/in/nass/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-360-intel-core-i5-1235u-windows-11-home-8gb-256gb-ssd-13-3-full-hd/p/gfd18f1d65/in/nsbo/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-intel-core-i5-12450h-8gb-ram-256gb-ssd-acer-aspire-5-a515-57-51w5-tela-full-hd-15-6-linux/p/ha5jff893d/in/nota/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-16gb-ram-512gb-ssd-linux-keepos-tela-156-fhd-blue-nj931/p/kk5jkbadb5/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-dell-g15-i1300-m30p-15-6-fhd-13a-geracao-intel-core-i5-16gb-512gb-ssd-nvidia-rtx-3050-windows-11/p/jbdda11749/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-e1504fa-amd-ryzen-5-7520u-8gb-ram-256gb-ssd-linux-keepos-tela-156-fhd-black-nj731/p/jh9c6ffhdk/in/note/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-u10p-15-6-full-hd-12a-geracao-intel-core-i3-8gb-256gb-ssd-linux-preto/p/fh35h0dabe/in/nodl/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-e1504fa-amd-ryzen-5-7520u-8gb-ram-256gb-ssd-linux-keepos-tela-156-fhd-black-nj731/p/jh9c6ffhdk/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-gamer-dell-g15-i1300-m30p-15-6-fhd-13a-geracao-intel-core-i5-16gb-512gb-ssd-nvidia-rtx-3050-windows-11/p/jbdda11749/in/nodl/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-360-intel-core-i5-1235u-windows-11-home-8gb-256gb-ssd-13-3-full-hd/p/gfd18f1d65/in/nsbo/</t>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-u45p-15-6-full-hd-12a-geracao-intel-core-i7-16gb-512gb-ssd-linux-preto/p/af6h8jkg9h/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-windows-11-home-intel-core-i5-16gb-512gb-ssd-15-6-full-hd-led-1-55-kg/p/eja386agb5/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i1300-m50p-15-6-full-hd-13a-gen-intel-core-i5-16gb-512gb-ssd-win-11-preto-carbono/p/cba2e4dkk5/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i5-1235u-8gb-512gb-ssd-windows-11-home-14-83af000ebr/p/fa2eb83h76/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-amd-ryzen-7-5700u-linux-16gb-ram-512gb-ssd-156-full-hd-cinza-grafite/p/ad70f1kdck/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-amd-ryzen-r5-5720u-8gb-ram-256gb-ssd-acer-aspire-3-a315-24p-r611-tela-hd-156-windows-11/p/jd01639k02/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-i3-1215u-4gb-256gb-ssd-linux-15-6-82vys00600-cloud-grey/p/ad59fec5ke/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i3-1215u-4gb-256gb-ssd-linux-14-83afs00500/p/kfjbccbede/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1-intel-core-i3-1215u-15-6-intel-uhd-graphics-128gb-ssd-4gb-ram-linux/p/kbke9a6317/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-swift-3-intel-core-i5-8gb-1tb-ssd-14-full-hd-windows-11-sf314-511-561n/p/235821900/in/nota/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-a0507-m10p-15-6-full-hd-amd-ryzen-5-8gb-512gb-ssd-windows-11-preto-carbono/p/bf1b61fa82/in/nodl/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-16gb-ram-512gb-ssd-linux-keepos-tela-156-fhd-blue-nj931/p/kk5jkbadb5/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i1300-m50p-15-6-full-hd-13a-gen-intel-core-i5-16gb-512gb-ssd-win-11-preto-carbono/p/cba2e4dkk5/in/nodl/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i5-1235u-8gb-512gb-ssd-windows-11-home-14-83af000ebr/p/fa2eb83h76/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-acer-swift-3-intel-core-i5-8gb-1tb-ssd-14-full-hd-windows-11-sf314-511-561n/p/235821900/in/nota/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-amd-ryzen-r5-5720u-8gb-ram-256gb-ssd-acer-aspire-3-a315-24p-r611-tela-hd-156-windows-11/p/jd01639k02/in/nota/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-amd-ryzen-7-5700u-linux-16gb-ram-512gb-ssd-156-full-hd-cinza-grafite/p/ad70f1kdck/in/fe15/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-u45p-15-6-full-hd-12a-geracao-intel-core-i7-16gb-512gb-ssd-linux-preto/p/af6h8jkg9h/in/nodl/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1-intel-core-i3-1215u-15-6-intel-uhd-graphics-128gb-ssd-4gb-ram-linux/p/kbke9a6317/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-i3-1215u-4gb-256gb-ssd-linux-15-6-82vys00600-cloud-grey/p/ad59fec5ke/in/leip/</t>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ultrafino-ideapad-1-i3-1215u-8gb-256gb-ssd-windows-home-15-6-82vy000sbr-cloud-grey/p/hbh5e486dc/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-multi-legacy-book-pc260-intel-celeron-4gb-64gb-emmc-14-lcd-windows-10/p/228805400/in/nmls/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-8gb-ram-512gb-ssd-linux-keepos-tela-156-fhd-blue-nj983/p/gga51eg2c9/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i7-1255u-12gb-512gb-ssd-linux-15-6-82vys01000/p/gebkcj74g3/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-v14-amd-r5-5625u-8gb-256gb-ssd-w11-home-14-fhd-82un000cbr/p/he83hha659/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-x515ma-tela-156-polegadas-intel-celeron-128gb-4gb-ram/p/ec914k6d4k/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-loq-intel-core-i5-12450h-16gb-512gb-ssd-rtx-2050-15-6-fhd-w11-83eu0001br/p/hed5099hag/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-u15p-15-6-full-hd-12a-geracao-intel-core-i3-8gb-512gb-ssd-linux-preto/p/cbgkfd6kj6/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book3-360-windows-11-home-intel-core-i7-1360p-16gb-1-tb-ssd-15-6-full-hd-amoled-1-46-kg/p/jdhc649k7h/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-macbook-air-apple-tela-de-retina-13-m1-8gb-ram-cpu-8-nucleos-gpu-7-nucleos-ssd-256gb-cinza-espacial-mgn63bz-a/p/bdk4e319kg/in/mack/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-a0507-m20p-15-6-full-hd-amd-ryzen-5-8gb-1tb-ssd-windows-11-preto-carbono/p/ea478a5h10/in/nodl/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i3-1215u-4gb-256gb-ssd-linux-14-83afs00500/p/kfjbccbede/in/leip/</t>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i3-1215u-windows-11-home-4gb-256gb-ssd-15-6-full-hd-led/p/hj3jejakae/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-intel-core-i5-1135g7-linux-16gb-512gb-ssd-full-hd-cinza-grafite/p/hkbggbacbb/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-intel-quadcore-6gb-ram-ssd-64gb-tela-14-1-ips-usb-3-brazil-pc/p/jghh8ef3ea/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-vjfe54f11x-b2711h-intel-core-i7-16gb-ram-ssd-512gb-156-full-hd-windows-11-3343475/p/237258000/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i5-1235u-windows-11-home-8gb-256gb-ssd-15-6-full-hd-led/p/aej06j4d3k/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-15-intel-core-i3-8-gb-512-ssd-w11-home-tela-15-6-fhd-cool-silver-e1504ga-nj435w/p/fa5dc3970a/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-thinkpad-l14-ryzen-5-pro-16gb-512gb-ssd-w11-home-14-fhd-21c60029bo-preto/p/de42j71a65/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-360-windows-11-home-intel-core-i7-16gb-1tb-ssd-15-6-full-hd-amoled-1-46-kg/p/ha317ehb3f/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad3i-82bu0001br-intel-celeron-4gb-128gb-ssd-156-lcd-windows-10/p/135302500/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-intel-core-i7-12650h-8gb-ram-ssd-256gb-15-6-full-hd-intel-uhd-linux-gutta-a515-57-727c/p/dj044ff6b7/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i7-1255u-windows-11-home-8gb-512gb-ssd-15-6-full-hd-led/p/ha6ef3c966/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-macbook-pro-apple-tela-retina-14-chip-m3-8gb-ram-cpu-8-nucleos-gpu-10-nucleos-ssd-1tb-prateado-mr7k3bz-a/p/keb3da50jd/in/mack/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-444-intel-core-i3-6167u-linux-4gb-240gb-ssd-141-led-hd-cinza/p/jke6315a91/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-3-360-evo-intel-core-i5-1335u-16gb-512-ssd-133-np730qfg-kf1br/p/fhggd1bd77/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-16-intel-core-i7-8gb-256gb-ssd-16-windows-11-x1605za-mb310w/p/237655800/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-hp-250-g9-15-6-hd-i5-1235u-8gb-ssd-256gb-windows-11-pro-cinza/p/dd89g6ca52/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-intel-core-i5-acer-aspire-5-8gb-ram-256gb-tela-15-6/p/hjechefc15/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-i5-1235u-8gb-512gb-ssd-windows-home-15-6-82vy000qbr-cloud-grey/p/dfj730e61c/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-windows-11-home-intel-core-i5-8gb-512gb-ssd-15-6-full-hd-led-1-55-kg/p/jh78j90k4h/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-3-360-evo-intel-core-i7-1360p-16gb-512-ssd-156-np750qfg-ks1br/p/ck0jeed50j/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad3i-82bs0002br-intel-core-i3-4gb-1tb-156-lcd-windows-10/p/135302300/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-hp-256-g9-intel-core-i3-8gb-256gb-ssd-156-windows-11-7z3r2la/p/fa3ehjcbde/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-t440-i5-8gb-ssd-256gb-win-10-pro/p/kkj4fafkhk/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-m45m-15-6-full-hd-12a-geracao-intel-core-i7-16gb-512gb-ssd-windows-11-mouse-wm126/p/hf3b2k2736/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-cq-25-intel-pentium-4gb-120gb-ssd-14-led-windows-10/p/135308400/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-s145-intel-core-i5-8gb-256gb-ssd-156-placa-de-video-2gb-windows-10/p/226554400/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-m15p-15-6-full-hd-12a-geracao-intel-core-i3-8gb-512gb-ssd-windows-11-preto/p/ce2be3h5jc/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-s145-81v7000cbr-amd-ryzen-3-8gb-256gb-ssd-156-lcd-windows-10/p/228062200/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-apple-macbook-air-m2-da-apple-com-10-gpu-8gb-ram-512gb-ssd-estelar-mly23bz-a/p/dhbfdc6d39/in/mack/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-ideapad-gaming-3i-amd-ryzen-7-8gb-256gb-ssd-155-full-hd-nvidia-gtx-1650/p/235631900/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-yoga-slim-6-intel-core-i7-1260p-16gb-512gb-ssd-intel-iris-xe-w11-14-83c70001br/p/ed2keg6302/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-3-a315-23g-r2se-amd-ryzen-5-8gb-256gb-ssd-156-placa-video-2gb-windows-10/p/227606400/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-454-intel-core-i5-8gb-240gb-ssd-141-hd-linux-debian-10/p/235135100/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad3i-82bs0005br-intel-core-i5-8gb-256gb-ssd-156-lcd-windows-10/p/135302600/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-intel-core-i5-8gb-512gb-ssd-156-linux-vjfe55f11x-b0221h/p/236885000/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-intel-atom-quad-core-windows-10-home-14-1-vermelho/p/djh1f6a087/in/ptvm/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-galaxy-book3-360-13-3-i5-16gb-ram-512gb-ssd-full-hd-w11-np730qfg-kf1br-samsung/p/fbj964k5e6/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-s145-82dj0001br-intel-core-i5-8gb-1tb-156-windows-10/p/226104200/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe14-vjfe43f11x-b0111h-intel-core-i3-4gb-256gb-ssd-14-full-hd-windows-10/p/227743300/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-amd-ryzen-5-5500u-linux-16gb-512gb-ssd-full-hd-prata-titanio/p/ke503a045g/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-amd-ryzen-7-5700u-linux-32gb-ram-512gb-ssd-15-6-full-hd-cinza-grafite/p/jj4g115ee0/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-hp-256-g8-intel-core-i3-8gb-256gb-ssd-tela-de-156-windows-11-613g3la/p/cb0058gg4c/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-v14-i3-1215u-8gb-256gb-ssd-w11-pro-14-fhd-82ul0019br-preto/p/jb6d8bg9kf/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-s145-82dj0003br-intel-core-i5-8gb-256gb-ssd-lcd-15-6-hd-windows-10/p/227907200/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i3-1215u-4gb-256gb-ssd-windows-11-home-15-6-82vy000ubr/p/fb7b24kac5/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-c4128e-intel-celeron-4gb-128gb-ssd-141-led-windows-10-office-365/p/228001000/in/ptvm/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-asus-tuf-gaming-f15fx507vu-rtx4050-core-i7-13620h-8gb-ram-512gb-ssd-linux-156-fhd144hz-gray-lp151/p/eb87e37gf4/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-ideapad-l340-intel-core-i5-8gb-256ssd-156-fullhd-nvidia-gtx1050-windows-10/p/227438200/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i7-1255u-8gb-512gb-ssd-tela-de-156-cinza-np550xed-ks2br/p/ghedh5g8ac/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-x543ua-dm3459t-intel-core-i3-4gb-256gb-ssd-156-full-hd-led/p/135302000/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-c41td-intel-celeron-dual-core-4gb-1tb-14-windows-10/p/135257900/in/ptvm/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-gamer-loq-intel-core-i5-12450h-8gb-512gb-ssd-rtx2050-tela-de-156-cinza-83eu0000br/p/cbe4j58keg/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-thinkpad-l14-ryzen-5-pro-16gb-512gb-ssd-w11-pro-14-fhd-21c60016bo-preto/p/kbkhd9a2hg/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-v15-i3-1215u-8gb-256gb-ssd-w11-home-15-fhd-82um000kbr-preto/p/kd2d75bc42/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-3511-core-i5-11th-20gb-1tb-ssd-tela-15-windows-11-mochila/p/hdc1jg4fj2/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-x543ua-gq3213t-intel-core-i5-8gb-256-ssd-156-led-windows-10/p/226498700/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x513ea-ej1064t-intel-core-i7-8gb-256gb-ssd-156-full-hd-led/p/230019600/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-legion-slim-5-intel-core-i7-13700h-16gb-1tb-rtx-4060-8gb-w11-16-wqxga-83d60000br-lenovo/p/bg00h240eb/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ultrafino-ideapad-3-amd-ryzen-5-8gb-256gb-ssd-win11-15-6-prata-headphone-bluetooth-branco-gt/p/ce908jd93c/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-16-intel-core-i7-8gb-256gb-ssd-16-keepos-x1605za-mb310/p/237655700/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-cq-29-intel-core-i5-8gb-480gb-ssd-156-full-hd-led-windows-10/p/227393300/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-vjfe53f11x-b0211h-intel-core-i3-4gb-256gb-ssd-156-led-windows-10/p/227904100/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-ultra-ub420-intel-core-i3-4gb-120gb-ssd-141-full-hd-windows-10/p/230022200/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-a515-54-579s-8g-ssd-m-2-nvme-256g-intel-core-i5/p/ghh29d3937/in/nota/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-ultra-ub423-intel-core-i3-4gb-120gb-ssd-141-full-hd-lcd-linux/p/230022300/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-asus-rog-strix-gaming-g16-g614ju-rtx4050-core-i7-16gb-ram-512gb-ssd-w11-16-fhd-165hz-gray-n3380w/p/kjhh99ca8g/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-vjfe52f11x-b2521h-intel-core-i3-4gb-256gb-ssd-156-full-hd-led-windows-10/p/230344800/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-cq-27-intel-core-i3-4gb-120gb-ssd-14-led-windows-10/p/135308300/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-450-intel-core-i5-8gb-240gb-ssd-141-led-windows-10/p/230410600/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-vjfe53f11x-b0511h-intel-core-i5-8gb-512gb-ssd-156-led-windows-10/p/227903900/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-fe14-vjfe42f11x-b1721h-intel-core-i3-4gb-256gb-ssd-14-full-hd-led-windows-10/p/230344700/in/fe15/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-cq-27-intel-core-i3-4gb-240gb-ssd-141-led-linux/p/226914400/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-intel-core-i7-11th-8gb-256ssd-win11/p/bkj7ecka75/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-book-core-i7-1165g7-win-118gb-1tb-hd-15-6/p/cf8f3hej36/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-14-hd-intel-i3-7020u-1tb-4gb-linux-cinza-escuro/p/ded900ek92/in/ptvm/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1-ryzen-5-7520u-8gb-256gb-win11-156/p/cgd8jg5fhj/in/leip/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-dell-5490-i7-8th-16gb-ssd-480gb/p/jh6eb9fbeg/in/nodl/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-core-i3-11th-8gb-ssd-nvme-256gb/p/ca476h6ke9/in/nsbo/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-q4128c-atom-z8350-4gb-128gb-windows10-14-3002030/p/fgc5b8b0de/in/ptvm/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-macbook-air-133-apple-m1-8gb-256gb-ssd-cinza-espacial/p/227625300/in/mack/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ultrafino-ideapad-1-i3-1215u-8gb-256gb-ssd-windows-home-15-6-82vy000sbr-cloud-grey/p/hbh5e486dc/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-windows-11-home-intel-core-i5-16gb-512gb-ssd-15-6-full-hd-led-1-55-kg/p/eja386agb5/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i7-1255u-12gb-512gb-ssd-linux-15-6-82vys01000/p/gebkcj74g3/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-8gb-ram-512gb-ssd-linux-keepos-tela-156-fhd-blue-nj983/p/gga51eg2c9/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-x515ma-tela-156-polegadas-intel-celeron-128gb-4gb-ram/p/ec914k6d4k/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-loq-intel-core-i5-12450h-16gb-512gb-ssd-rtx-2050-15-6-fhd-w11-83eu0001br/p/hed5099hag/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-v14-amd-r5-5625u-8gb-256gb-ssd-w11-home-14-fhd-82un000cbr/p/he83hha659/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i3-1215u-windows-11-home-4gb-256gb-ssd-15-6-full-hd-led/p/hj3jejakae/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-u15p-15-6-full-hd-12a-geracao-intel-core-i3-8gb-512gb-ssd-linux-preto/p/cbgkfd6kj6/in/nodl/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book3-360-windows-11-home-intel-core-i7-1360p-16gb-1-tb-ssd-15-6-full-hd-amoled-1-46-kg/p/jdhc649k7h/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-thinkpad-l14-ryzen-5-pro-16gb-512gb-ssd-w11-home-14-fhd-21c60029bo-preto/p/de42j71a65/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-predator-neo-phn16-71-72w6-core-i7-13-g-windows-11-home-16gb-512ssd-rtx-4060-16-wuxga-acer/p/jeekk9kfa2/in/nota/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-intel-core-i5-1135g7-linux-16gb-512gb-ssd-full-hd-cinza-grafite/p/hkbggbacbb/in/fe15/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-multi-legacy-book-pc260-intel-celeron-4gb-64gb-emmc-14-lcd-windows-10/p/228805400/in/nmls/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-multilaser-m11w-prime-2-em-1-celeron-n4020-11-6-64gb-4gb-win11-home-prata-microsoft-365-personal-pc280/p/fejbf46haa/in/nmls/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-intel-core-i5-acer-aspire-5-8gb-ram-256gb-tela-15-6/p/hjechefc15/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-16-intel-core-i7-8gb-256gb-ssd-16-windows-11-x1605za-mb310w/p/237655800/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-360-windows-11-home-intel-core-i7-16gb-1tb-ssd-15-6-full-hd-amoled-1-46-kg/p/ha317ehb3f/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-intel-quadcore-6gb-ram-ssd-64gb-tela-14-1-ips-usb-3-brazil-pc/p/jghh8ef3ea/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-vjfe54f11x-b2711h-intel-core-i7-16gb-ram-ssd-512gb-156-full-hd-windows-11-3343475/p/237258000/in/fe15/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i5-1235u-windows-11-home-8gb-256gb-ssd-15-6-full-hd-led/p/aej06j4d3k/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-444-intel-core-i3-6167u-linux-4gb-240gb-ssd-141-led-hd-cinza/p/jke6315a91/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-15-intel-core-i3-8-gb-512-ssd-w11-home-tela-15-6-fhd-cool-silver-e1504ga-nj435w/p/fa5dc3970a/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad3i-82bu0001br-intel-celeron-4gb-128gb-ssd-156-lcd-windows-10/p/135302500/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-windows-11-home-intel-core-i5-8gb-512gb-ssd-15-6-full-hd-led-1-55-kg/p/jh78j90k4h/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i7-1255u-windows-11-home-8gb-512gb-ssd-15-6-full-hd-led/p/ha6ef3c966/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-3-360-evo-intel-core-i5-1335u-16gb-512-ssd-133-np730qfg-kf1br/p/fhggd1bd77/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-cq-25-intel-pentium-4gb-120gb-ssd-14-led-windows-10/p/135308400/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-m15p-15-6-full-hd-12a-geracao-intel-core-i3-8gb-512gb-ssd-windows-11-preto/p/ce2be3h5jc/in/nodl/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-i5-1235u-8gb-512gb-ssd-windows-home-15-6-82vy000qbr-cloud-grey/p/dfj730e61c/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-m45m-15-6-full-hd-12a-geracao-intel-core-i7-16gb-512gb-ssd-windows-11-mouse-wm126/p/hf3b2k2736/in/nodl/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-hp-256-g9-intel-core-i3-8gb-256gb-ssd-156-windows-11-7z3r2la/p/fa3ehjcbde/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad3i-82bs0002br-intel-core-i3-4gb-1tb-156-lcd-windows-10/p/135302300/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-hp-250-g9-15-6-hd-i5-1235u-8gb-ssd-256gb-windows-11-pro-cinza/p/dd89g6ca52/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-ideapad-gaming-3i-amd-ryzen-7-8gb-256gb-ssd-155-full-hd-nvidia-gtx-1650/p/235631900/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-apple-macbook-air-m2-da-apple-com-10-gpu-8gb-ram-512gb-ssd-estelar-mly23bz-a/p/dhbfdc6d39/in/mack/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-3-360-evo-intel-core-i7-1360p-16gb-512-ssd-156-np750qfg-ks1br/p/ck0jeed50j/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-s145-intel-core-i5-8gb-256gb-ssd-156-placa-de-video-2gb-windows-10/p/226554400/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-yoga-slim-6-intel-core-i7-1260p-16gb-512gb-ssd-intel-iris-xe-w11-14-83c70001br/p/ed2keg6302/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-t440-i5-8gb-ssd-256gb-win-10-pro/p/kkj4fafkhk/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-3-a315-23g-r2se-amd-ryzen-5-8gb-256gb-ssd-156-placa-video-2gb-windows-10/p/227606400/in/nota/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-454-intel-core-i5-8gb-240gb-ssd-141-hd-linux-debian-10/p/235135100/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-intel-core-i5-8gb-512gb-ssd-156-linux-vjfe55f11x-b0221h/p/236885000/in/fe15/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-c41td-intel-celeron-dual-core-4gb-1tb-14-windows-10/p/135257900/in/ptvm/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad3i-82bs0005br-intel-core-i5-8gb-256gb-ssd-156-lcd-windows-10/p/135302600/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-s145-81v7000cbr-amd-ryzen-3-8gb-256gb-ssd-156-lcd-windows-10/p/228062200/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i3-1215u-4gb-256gb-ssd-windows-11-home-15-6-82vy000ubr/p/fb7b24kac5/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-vaio-fe14-vjfe43f11x-b0111h-intel-core-i3-4gb-256gb-ssd-14-full-hd-windows-10/p/227743300/in/fe15/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-s145-82dj0001br-intel-core-i5-8gb-1tb-156-windows-10/p/226104200/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-intel-atom-quad-core-windows-10-home-14-1-vermelho/p/djh1f6a087/in/ptvm/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-ideapad-l340-intel-core-i5-8gb-256ssd-156-fullhd-nvidia-gtx1050-windows-10/p/227438200/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-amd-ryzen-7-5700u-linux-32gb-ram-512gb-ssd-15-6-full-hd-cinza-grafite/p/jj4g115ee0/in/fe15/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-galaxy-book3-360-13-3-i5-16gb-ram-512gb-ssd-full-hd-w11-np730qfg-kf1br-samsung/p/fbj964k5e6/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-gamer-asus-tuf-gaming-f15fx507vu-rtx4050-core-i7-13620h-8gb-ram-512gb-ssd-linux-156-fhd144hz-gray-lp151/p/eb87e37gf4/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-c4128e-intel-celeron-4gb-128gb-ssd-141-led-windows-10-office-365/p/228001000/in/ptvm/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-v14-i3-1215u-8gb-256gb-ssd-w11-pro-14-fhd-82ul0019br-preto/p/jb6d8bg9kf/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-amd-ryzen-5-5500u-linux-16gb-512gb-ssd-full-hd-prata-titanio/p/ke503a045g/in/fe15/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-hp-256-g8-intel-core-i3-8gb-256gb-ssd-tela-de-156-windows-11-613g3la/p/cb0058gg4c/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-x543ua-dm3459t-intel-core-i3-4gb-256gb-ssd-156-full-hd-led/p/135302000/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-s145-82dj0003br-intel-core-i5-8gb-256gb-ssd-lcd-15-6-hd-windows-10/p/227907200/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-x543ua-gq3430t-intel-core-i3-4gb-256gb-ssd-156-led-windows-10/p/135309500/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-thinkpad-l14-ryzen-5-pro-16gb-512gb-ssd-w11-pro-14-fhd-21c60016bo-preto/p/kbkhd9a2hg/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-3511-core-i5-11th-20gb-1tb-ssd-tela-15-windows-11-mochila/p/hdc1jg4fj2/in/nodl/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-gamer-loq-intel-core-i5-12450h-8gb-512gb-ssd-rtx2050-tela-de-156-cinza-83eu0000br/p/cbe4j58keg/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x513ea-ej1064t-intel-core-i7-8gb-256gb-ssd-156-full-hd-led/p/230019600/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-gamer-legion-slim-5-intel-core-i7-13700h-16gb-1tb-rtx-4060-8gb-w11-16-wqxga-83d60000br-lenovo/p/bg00h240eb/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-16-intel-core-i7-8gb-256gb-ssd-16-keepos-x1605za-mb310/p/237655700/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ultrafino-ideapad-3-amd-ryzen-5-8gb-256gb-ssd-win11-15-6-prata-headphone-bluetooth-branco-gt/p/ce908jd93c/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i7-1255u-8gb-512gb-ssd-tela-de-156-cinza-np550xed-ks2br/p/ghedh5g8ac/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-x543ua-gq3213t-intel-core-i5-8gb-256-ssd-156-led-windows-10/p/226498700/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-vjfe52f11x-b2211h-intel-core-i5-8gb-512gb-ssd-156-full-hd-led-windows-10/p/230532500/in/fe15/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-cq-29-intel-core-i5-8gb-480gb-ssd-156-full-hd-led-windows-10/p/227393300/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-vjfe53f11x-b0211h-intel-core-i3-4gb-256gb-ssd-156-led-windows-10/p/227904100/in/fe15/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-acer-a515-54-579s-8g-ssd-m-2-nvme-256g-intel-core-i5/p/ghh29d3937/in/nota/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-ultra-ub420-intel-core-i3-4gb-120gb-ssd-141-full-hd-windows-10/p/230022200/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-ultra-ub423-intel-core-i3-4gb-120gb-ssd-141-full-hd-lcd-linux/p/230022300/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-vjfe52f11x-b2521h-intel-core-i3-4gb-256gb-ssd-156-full-hd-led-windows-10/p/230344800/in/fe15/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-gamer-asus-rog-strix-gaming-g16-g614ju-rtx4050-core-i7-16gb-ram-512gb-ssd-w11-16-fhd-165hz-gray-n3380w/p/kjhh99ca8g/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-v15-i3-1215u-8gb-256gb-ssd-w11-home-15-fhd-82um000kbr-preto/p/kd2d75bc42/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-cq-27-intel-core-i3-4gb-120gb-ssd-14-led-windows-10/p/135308300/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-cq-27-intel-core-i3-4gb-240gb-ssd-141-led-linux/p/226914400/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-450-intel-core-i5-8gb-240gb-ssd-141-led-windows-10/p/230410600/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-vjfe53f11x-b0511h-intel-core-i5-8gb-512gb-ssd-156-led-windows-10/p/227903900/in/fe15/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-intel-core-i7-11th-8gb-256ssd-win11/p/bkj7ecka75/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-amd-ryzen-5-5500u-linux-8gb-256gb-ssd-full-hd-prata-titanio/p/fj0ek71eh5/in/fe15/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-vaio-fe14-vjfe42f11x-b1721h-intel-core-i3-4gb-256gb-ssd-14-full-hd-led-windows-10/p/230344700/in/fe15/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-book-core-i7-1165g7-win-118gb-1tb-hd-15-6/p/cf8f3hej36/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1-ryzen-5-7520u-8gb-256gb-win11-156/p/cgd8jg5fhj/in/leip/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-14-hd-intel-i3-7020u-1tb-4gb-linux-cinza-escuro/p/ded900ek92/in/ptvm/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-core-i3-11th-8gb-ssd-nvme-256gb/p/ca476h6ke9/in/nsbo/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-q4128c-atom-z8350-4gb-128gb-windows10-14-3002030/p/fgc5b8b0de/in/ptvm/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-gamer-dell-5490-i7-8th-16gb-ssd-480gb/p/jh6eb9fbeg/in/nodl/</t>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-pro-15-core-i9-16gb-512gb-ssd-156-fhd-144hz-nvidia-rtx3050-k6502hc-lp095w/p/237656100/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/chromebook-c733-c607-intel-celeron-n4020-4gb-32gb-emmc-11-6-chrome-os-acer/p/ge6f99djf0/in/nota/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-ultra-intel-w10-core-i5-8gb-ram-1tb-hdd-prata-ub531/p/fajj7f193e/in/note/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/chromebook-c733-c607-intel-celeron-n4020-4gb-32gb-emmc-11-6-chrome-os-acer/p/ge6f99djf0/in/nota/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-intel-core-i7-12650h-8gb-ram-ssd-256gb-15-6-full-hd-intel-uhd-linux-gutta-a515-57-727c/p/dj044ff6b7/in/nota/</t>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-book2-np550xed-kt3br-intel-core-i3-1215u-4gb-256-gb-ssd-tela-15-6-full-hd-led-antirreflexiva-windows-11-home/p/fhb8b5653b/in/nsbo/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i3-1215u-4gb-256gb-ssd-tela-15-6-windows-11-home-np550xed-kt3br/p/bk25hec5kk/in/nsbo/</t>
@@ -1313,18 +1280,21 @@
     <t>https://www.magazineluiza.com.br/notebook-2-em-1-positivo-11-6-intel-n4020-4gb-lpddr4-128gb-ssd-windows-11-pro/p/kh598dc392/in/ptvm/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-3i-amd-ryzen-5-20gb-512gb-ssd-15-6-full-hd-windows-11-82mfs00100/p/ccb9eg12d3/in/leip/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-amd-ryzen-5-5500u-windows-11-home-8gb-512gb-ssd-full-hd-prata-titanio/p/khf9k56200/in/fe15/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-3i-amd-ryzen-5-20gb-512gb-ssd-15-6-full-hd-windows-11-82mfs00100/p/ccb9eg12d3/in/leip/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-lenovo-v14-i5-1235u-8gb-256gb-ssd-linux-14-fhd-82uls00200-preto/p/ah0j2db7f7/in/note/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-positivo-motion-gray-c464f-intel-celeron-dual-core-windows-11-home-141-cinza-inclui-microsoft-365/p/ka953hj2de/in/ptvm/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/ultrabook-lenovo-thinkpad-x260-intel-core-i5-6g-ssd-256gb-sl/p/hk0k4d7212/in/leip/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-8gb-ram-512gb-ssd-windows-11-tela-156-fhd-silver-nj986w/p/df9cc36d3d/in/note/</t>
   </si>
   <si>
@@ -1340,24 +1310,30 @@
     <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book3-ultra-windows-11-home-intel-core-i9-13900h-32gb-1tb-ssd-16-wqxga-amoled-2x-1-79-kg/p/kgd08a6c25/in/nsbo/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-16-x1605za-mb312w-intel-core-i7-1255u-35-ghz-16gb-ram-256gb-ssd-windows-11-home-intel-iris-xe-16-full-hd-prata-metalico/p/ja59j21e7h/in/nass/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-16-intel-core-i7-1255u-16gb-512gb-ssd-tela-16-win-11-x1605za-mb313w/p/jhe9j4d7b9/in/nass/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-16-x1605za-mb312w-intel-core-i7-1255u-35-ghz-16gb-ram-256gb-ssd-windows-11-home-intel-iris-xe-16-full-hd-prata-metalico/p/ja59j21e7h/in/nass/</t>
+    <t>https://www.magazineluiza.com.br/notebook-macbook-air-apple-tela-de-retina-13-m2-8gb-ram-cpu-8-nucleos-gpu-10-nucleos-ssd-512gb-prateado-mly03bz-a/p/gc357a2jk1/in/mack/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-15-e1504fa-nj836w-amd-ryzen-5-7520u-28-ghz-8gb-512gb-ssd-windows-11-home-156-full-hd-preto/p/ahb0159a7g/in/note/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-asus-tuf-gaming-f15-fx507zc4-hn113w-intel-core-i7-12700h-23-ghz-16gb-ram-512gb-ssd-windows-11-home-nvidia-geforce-rtx-3050-156-144hz/p/fg64kd9hdg/in/nass/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-intel-core-i5-10210u-linux-8gb-256gb-ssd-full-hd-cinza-escuro/p/bc4g79g37d/in/fe15/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-gamer-asus-tuf-gaming-f15-fx507zc4-hn113w-intel-core-i7-12700h-23-ghz-16gb-ram-512gb-ssd-windows-11-home-nvidia-geforce-rtx-3050-156-144hz/p/fg64kd9hdg/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-15-e1504fa-nj836w-amd-ryzen-5-7520u-28-ghz-8gb-512gb-ssd-windows-11-home-156-full-hd-preto/p/ahb0159a7g/in/note/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-windows-11-home-intel-core-i5-8gb-256gb-ssd-15-6-full-hd-led-1-55-kg/p/ha0d079jcb/in/nsbo/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-433-intel-core-i3-6157u-linux-4gb-ram-1tb-hd-14-led-hd-cinza/p/kge68hb0g0/in/note/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-intel-core-i5-1135g7-linux-8gb-ram-256gb-ssd-15-6-full-hd-cinza-grafite/p/gdc5che421/in/fe15/</t>
   </si>
   <si>
@@ -1367,55 +1343,43 @@
     <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-360-intel-core-7-16gb-1tb-sd-tela-touch-156-grafite-np750qgk-kg1br/p/gceej3agba/in/nsbo/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-433-intel-core-i3-6157u-linux-4gb-ram-1tb-hd-14-led-hd-cinza/p/kge68hb0g0/in/note/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-macbook-air-apple-tela-de-retina-13-m2-8gb-ram-cpu-8-nucleos-gpu-10-nucleos-ssd-512gb-prateado-mly03bz-a/p/gc357a2jk1/in/mack/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-gamer-legion-slim-5-i7-13700h-16gb-512gb-rtx-4060-8gb-w11-home-16-wqxga-165hz-83d60001br-lenovo/p/hh19j03392/in/leip/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/macbook-air-133-apple-m1-8gb-256gb-ssd-prateado/p/227625500/in/mack/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-macbook-air-apple-tela-de-retina-13-m1-8gb-ram-cpu-8-nucleos-gpu-7-nucleos-ssd-256gb-cinza-espacial-mgn63bz-a/p/bdk4e319kg/in/mack/</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i1300-m40p-15-6-full-hd-13a-gen-intel-core-i5-8gb-1tb-ssd-win-11-preto-carbono/p/ga23h5bc1b/in/nodl/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-gamer-dell-g15-i1300-m20p-15-6-fhd-13a-geracao-intel-core-i5-8gb-512gb-ssd-nvidia-rtx-3050-windows-11/p/fad88c4kj9/in/nodl/</t>
   </si>
   <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-book-i3-8gb-256gb-ssd-156-windows-np550xdakv3br/p/jak91jc3cd/in/nsbo/</t>
+  </si>
+  <si>
     <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-8gb-ram-256gb-ssd-linux-keepos-tela-156-fhd-blue-nj982/p/dhgb655g44/in/note/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-book-i3-8gb-256gb-ssd-156-windows-np550xdakv3br/p/jak91jc3cd/in/nsbo/</t>
+    <t>https://www.magazineluiza.com.br/notebook-asus-x515-intel-celeron-n4020-4gb-ddr4-128gb-ssd-tela-15-6-windows-11-home-cinza-x515ma-br933ws/p/jjajd3a3dg/in/nass/</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i1300-u60p-15-6-full-hd-13a-gen-intel-core-i5-16gb-1tb-ssd-linux-preto-carbono/p/fkgae357j4/in/nodl/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-vaio-fe15-amd-ryzen-7-5700u-windows-11-home-16gb-512gb-ssd-full-hd-prata-titanio/p/ka59gc9c7k/in/fe15/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i1300-u60p-15-6-full-hd-13a-gen-intel-core-i5-16gb-1tb-ssd-linux-preto-carbono/p/fkgae357j4/in/nodl/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-x515-intel-celeron-n4020-4gb-ddr4-128gb-ssd-tela-15-6-windows-11-home-cinza-x515ma-br933ws/p/jjajd3a3dg/in/nass/</t>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i1300-m60p-15-6-full-hd-13a-gen-intel-core-i5-16gb-1tb-ssd-win-11-preto-carbono/p/fg2hhg4a06/in/nodl/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-16-x1605za-mb310w-intel-core-i7-1255u-35-ghz-8gb-ram-256gb-ssd-windows-11-home-intel-uhd-16-full-hd-prata-metalico/p/eae61ghbfh/in/note/</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i1300-m60p-15-6-full-hd-13a-gen-intel-core-i5-16gb-1tb-ssd-win-11-preto-carbono/p/fg2hhg4a06/in/nodl/</t>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-intel-core-i5-32gb-1tb-ssd-156-full-hd-windows-11-fe15-vjfe55f11x-b0211h/p/jda7c32ddd/in/note/</t>
   </si>
   <si>
     <t>https://www.magazineluiza.com.br/macbook-air-apple-13-m3-cpu-de-8-nucleos-gpu-de-8-nucleos-8gb-ram-ssd-256gb-cinza-espacial-mrxn3bz-a/p/ja96940e8b/in/mack/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1500ea-ej3665w-intel-core-i3-1115g4-4gb-256gb-ssd-tela-15-6-polegadas-windows-11/p/fa4he7e85g/in/nass/</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-vaio-intel-core-i5-32gb-1tb-ssd-156-full-hd-windows-11-fe15-vjfe55f11x-b0211h/p/jda7c32ddd/in/note/</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +1750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1808,10 +1772,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1819,10 +1783,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1830,10 +1794,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1841,10 +1805,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1852,10 +1816,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>370</v>
+        <v>465</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1863,10 +1827,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1874,10 +1838,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1393</v>
+        <v>1398</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1885,10 +1849,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>893</v>
+        <v>347</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1896,10 +1860,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1113</v>
+        <v>415</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1907,10 +1871,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>346</v>
+        <v>895</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1918,10 +1882,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>412</v>
+        <v>1121</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1932,7 +1896,7 @@
         <v>118</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1943,7 +1907,7 @@
         <v>650</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1951,10 +1915,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1962,10 +1926,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>146</v>
+        <v>781</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1973,10 +1937,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>781</v>
+        <v>301</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1987,7 +1951,7 @@
         <v>361</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1998,7 +1962,7 @@
         <v>113</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2009,7 +1973,7 @@
         <v>411</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2017,10 +1981,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>680</v>
+        <v>127</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2028,10 +1992,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2039,10 +2003,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>127</v>
+        <v>680</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2050,10 +2014,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>929</v>
+        <v>145</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2061,10 +2025,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>145</v>
+        <v>929</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2075,7 +2039,7 @@
         <v>1567</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2086,7 +2050,7 @@
         <v>279</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2097,7 +2061,7 @@
         <v>726</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2105,10 +2069,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>786</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2116,32 +2080,32 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B32">
-        <v>325</v>
+        <v>816</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2149,32 +2113,32 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>816</v>
+        <v>870</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2182,10 +2146,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>273</v>
+        <v>364</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2193,10 +2157,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>870</v>
+        <v>273</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2207,7 +2171,7 @@
         <v>598</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2215,10 +2179,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>364</v>
+        <v>107</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2226,10 +2190,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2237,10 +2201,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>144</v>
+        <v>560</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2248,10 +2212,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>560</v>
+        <v>126</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2259,54 +2223,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>126</v>
+        <v>590</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>1325</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>175</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>590</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>206</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2353,10 +2273,6 @@
     <hyperlink ref="C41" r:id="rId40"/>
     <hyperlink ref="C42" r:id="rId41"/>
     <hyperlink ref="C43" r:id="rId42"/>
-    <hyperlink ref="C44" r:id="rId43"/>
-    <hyperlink ref="C45" r:id="rId44"/>
-    <hyperlink ref="C46" r:id="rId45"/>
-    <hyperlink ref="C47" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2364,7 +2280,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2383,2081 +2299,2070 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B8">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B12">
         <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B13">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B18">
         <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B21">
         <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B25">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B26">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B29">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B30">
         <v>41</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B35">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B38">
         <v>66</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B41">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B43">
         <v>18</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B48">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B49">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B56">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B57">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B60">
         <v>10</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B63">
         <v>24</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B65">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B66">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B71">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B72">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B78">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B81">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B83">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B87">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B89">
         <v>5</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B90">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B92">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B95">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B98">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B99">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B100">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B101">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B102">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B103">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B104">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B105">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B106">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B108">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B112">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B115">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B116">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B117">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B118">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B122">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B123">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="B124">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B126">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="B127">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B128">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B129">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B130">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B131">
         <v>5</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B132">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B134">
         <v>24</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B136">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B137">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B138">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B139">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B140">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B143">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B146">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B148">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B151">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B153">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B155">
         <v>4</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B158">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B159">
         <v>2</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B161">
         <v>64</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B162">
         <v>6</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B163">
         <v>24</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B164">
         <v>3</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B166">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B167">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B168">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B169">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B172">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B174">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B175">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B177">
         <v>50</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B178">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B183">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B184">
         <v>2</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B186">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B187">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
-        <v>278</v>
-      </c>
-      <c r="B190">
-        <v>2</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -4650,7 +4555,6 @@
     <hyperlink ref="C187" r:id="rId186"/>
     <hyperlink ref="C188" r:id="rId187"/>
     <hyperlink ref="C189" r:id="rId188"/>
-    <hyperlink ref="C190" r:id="rId189"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
